--- a/Payroll/DispersionTXT/2021/NOMINAS/DEPOSITOS_E22P7A21/E22A20212021P7_B21test.xlsx
+++ b/Payroll/DispersionTXT/2021/NOMINAS/DEPOSITOS_E22P7A21/E22A20212021P7_B21test.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Sheet1" sheetId="1" r:id="R045e8f64b8d74286"/>
+    <x:sheet name="Sheet1" sheetId="1" r:id="R781709cfadd74028"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -44,18 +44,18 @@
     <x:t>LAURENCIO IRRAESTRO SALAZAR</x:t>
   </x:si>
   <x:si>
+    <x:t>6513030101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAN JUANA NATTALY TORRES LEZA</x:t>
+  </x:si>
+  <x:si>
     <x:t>6508495616</x:t>
   </x:si>
   <x:si>
     <x:t>MAYDA DOLORES REY ESTRADA</x:t>
   </x:si>
   <x:si>
-    <x:t>6513030101</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAN JUANA NATTALY TORRES LEZA</x:t>
-  </x:si>
-  <x:si>
     <x:t>6511281169</x:t>
   </x:si>
   <x:si>
@@ -80,58 +80,568 @@
     <x:t>ADRIANA GOMEZ RODRIGUEZ</x:t>
   </x:si>
   <x:si>
+    <x:t>6489385934</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JULIO CESAR GALEANA DE LA CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509496936</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GERARDO LOPEZ CAMPUZANO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504036331</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIEGO ARMANDO UZCANGA ORTEGA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6510867653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARISOL PEREZ BARCELO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6514348023</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OBED GODOY MENDOZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6487177051</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE GABRIEL VAZQUEZ RIVEROL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6493602043</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS RICARDO CASAS GAONA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6493948651</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NANCY SOCORRO CEPEDA VELEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6487506275</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JONATHAN JERUSALEM ESPINOSA DURAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373273740</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA SILVIA MORALES ALMARAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373333668</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN JOSE CRUZ CHAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373383481</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NALLELY ROXANA LUNA AGUILAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6374004680</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARTHA GUADALUPE MENDEZ COLLANTES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373264954</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAVIER CAMACHO CHINO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373452666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUZ EDITH MAR MENDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373447393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VERONICA PANIAGUA REYES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373263931</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS HUMBERTO AKE PECH</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373358350</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANGELICA MARGARITA LEAL VILLEGAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373340937</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENRIQUE SOLIS SALINAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6257706053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERGIO JOSE MANUEL MALDONADO JUAREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373333247</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEONARDO ANSELMO LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373991689</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAUL ANTONIO LOPEZ LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6385041168</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GLAFIRA MARTINEZ GONZALEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6435159359</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSA ISCELA HERNANDEZ DOMINGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4059919167</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANTONIO DE JESUS ESPINOZA SALINAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6447903711</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIBEL REYES GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6457286866</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALBERTO CRUZ DIAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6497788384</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAIME HERIBERTO RODRIGUEZ MURILLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6482058595</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSUE CONDE PERDOMO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6482062779</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDUARDO JUAREZ OLIVARES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6452723673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ABRAHAM CAUICH UICAB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6465978561</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CINTHIA MARIBEL SIMA DURAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6489692073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YAMILI GISELA CHAN HERRERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6489696199</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERASMO EMANUEL LUNA SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6489696587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUEL ANGEL GOMEZ FELIX</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373450694</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RENE HERNANDEZ ROMERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6358416835</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANAHI SOBERANIZ LAZARO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6456982119</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSA HERNANDEZ CORONA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504033999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARELI DOMINGUEZ JIMENEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504036125</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANA LUISA SOSA SAYAGO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373376469</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE EUSTAQUIO HUCHIM CAAMAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373376485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUEL ANGEL CHAN HAU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373991705</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ESTEFANY YUACIM ROSADO HUCHIM</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6456901762</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FERNANDO ALONSO TUN MENDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6482994971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LORENA MARISOL DZIB MAZUN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6482995440</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS JOSE PERERA POOL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6501597202</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KAROL JOSEF RIVERO CHAVEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6449111834</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FELICIA CUBA LEON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485286581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMANDA GUZMAN MORENO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485288504</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YANET RAMIREZ SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509898776</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DULCE MARIA RODRIGUEZ CASTILLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6380845910</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALFREDO AVILA VILLARREAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6457967085</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELENA JUDITH GALINDO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373310393</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRUMENCIO CRUZ EUGENIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6501500081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAUL BELTRAN SOLIS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509414343</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELIZABETH GARCIA HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6497749485</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERIKA ADRIANA LIMON HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509410523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SURI MIGUEL RODRIGUEZ MENDOZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505374160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERIKA SANTIAGO VASQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6492557644</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NAYIELI JOSEFINA HERNANDEZ SANTOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6507753288</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS ANGEL PIMENTEL BARTOLO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373261448</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOEL REYES CANO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6476634211</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REYNA LILIANA ALVARADO FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485359818</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSELINE NAYELI GONZALEZ LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6481209397</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOE ALEJANDRO DIAZ MENDOZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6423281140</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE JUAN PEREZ FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6465750846</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIBEL MARIN HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6503897709</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSAFAT YAIR MELO CHONG</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6512211827</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DALICE ZUMAYA REYES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373294506</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANA CRISTINA LOPEZ MAYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6493952489</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE CARMELO MAYORGA PONCE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6478605391</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUEL ANGEL VARELA CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6481175523</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARTHA LIZETH ALVARADO MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6502800530</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROCIO LOPEZ BUSTOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6502801611</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRENDA EDITH MALDONADO DE LA CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373976128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALMA DELIA TALAVERA BERNAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373448482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SONIA ALVARADO GONZALEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373976201</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSALIO MARTINEZ AGUIRRE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6459193870</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAYRA PATRICIA BAUTISTA ORTIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6516450819</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIRIAM ISABEL GARCIA QUINTERO</x:t>
+  </x:si>
+  <x:si>
     <x:t>6516730475</x:t>
   </x:si>
   <x:si>
     <x:t>NANCY CITLALI ESLAVA DE LA CRUZ</x:t>
   </x:si>
   <x:si>
-    <x:t>6489385934</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JULIO CESAR GALEANA DE LA CRUZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509496936</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GERARDO LOPEZ CAMPUZANO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504036331</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIEGO ARMANDO UZCANGA ORTEGA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373264954</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAVIER CAMACHO CHINO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373452666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUZ EDITH MAR MENDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373447393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VERONICA PANIAGUA REYES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373263931</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS HUMBERTO AKE PECH</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373358350</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANGELICA MARGARITA LEAL VILLEGAS</x:t>
+    <x:t>6500171892</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE MANUEL HUERTA CARMONA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6500175794</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JESUS ELIAS BRAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6374029166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEON SANCHEZ RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484276112</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE MIGUEL GUZMAN GALICIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484278522</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SALVADOR SANCHEZ NIEVES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484617018</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERENDIRA VERONICA FLORES VIVEROS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6512035671</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUANA VARGAS HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6475336974</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALMA KAREN PEREZ TENOPALA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6460510856</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIANO ANTONIO GARRIDO PENA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494913746</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENRIQUE MANUEL GUZMAN BARRON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6499317075</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NOE GONZALEZ PALOMINO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509171935</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DEYANIRA GARCIA ALCAZAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373333734</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ARACELI JUSTO CAYETANO</x:t>
   </x:si>
   <x:si>
     <x:t>6455994800</x:t>
@@ -152,160 +662,814 @@
     <x:t>JOSE MARTIN CHAVARRIA HORTAL</x:t>
   </x:si>
   <x:si>
-    <x:t>6373273740</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA SILVIA MORALES ALMARAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373333668</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN JOSE CRUZ CHAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373383481</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NALLELY ROXANA LUNA AGUILAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6374004680</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARTHA GUADALUPE MENDEZ COLLANTES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6510867653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARISOL PEREZ BARCELO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6514348023</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OBED GODOY MENDOZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6487177051</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE GABRIEL VAZQUEZ RIVEROL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6493602043</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS RICARDO CASAS GAONA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6493948651</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NANCY SOCORRO CEPEDA VELEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6487506275</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JONATHAN JERUSALEM ESPINOSA DURAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373340937</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENRIQUE SOLIS SALINAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6257706053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SERGIO JOSE MANUEL MALDONADO JUAREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373333247</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEONARDO ANSELMO LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373991689</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAUL ANTONIO LOPEZ LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6385041168</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GLAFIRA MARTINEZ GONZALEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6435159359</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSA ISCELA HERNANDEZ DOMINGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4059919167</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANTONIO DE JESUS ESPINOZA SALINAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6447903711</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIBEL REYES GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6457286866</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALBERTO CRUZ DIAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6497788384</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAIME HERIBERTO RODRIGUEZ MURILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6475336974</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALMA KAREN PEREZ TENOPALA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6460510856</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIANO ANTONIO GARRIDO PENA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494913746</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENRIQUE MANUEL GUZMAN BARRON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6499317075</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOE GONZALEZ PALOMINO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509171935</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DEYANIRA GARCIA ALCAZAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373333734</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARACELI JUSTO CAYETANO</x:t>
+    <x:t>6373453235</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YADIRA LETICIA IZAGUIRRE GUERRERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6438342721</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JORGE RESENDEZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6470288667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GABINO PINA DEVEZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6489321392</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JESSICA ESMERALDA RIVERA DEL ANGEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6302860005</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIO ALBERTO QUINTERO MEDINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6487461976</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARGARITA CRUZ DEL ANGEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6457966400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PATRICIA AUDELIA LOPEZ OCHOA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6499217135</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERGIO FELICIANO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6468525542</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAIRA EVELYN MENDOZA DIAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6481096422</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARINA AMADA MOJICA ORTIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6481738999</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAYRA ALEJANDRA PARADA VAZQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509429978</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCISCO JAVIER ARREGUIN FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6501389857</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN ALBERTO MALDONADO RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6508403156</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAYRA ANGELICA VELAZQUEZ MENDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6456774490</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA DE LA CONCEPCION IBARRA RAMIR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6478796299</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA BERENICE REYNA ROSALES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6455306682</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ALBERTO ROCHA RAMIREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6465603136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEJANDRO RUIZ SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6465606030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELVIRA MARISOL AVILA ALVAREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6492506252</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS FELIPE PEREZ VAZQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6507268212</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUADALUPE ITZEL RAMIREZ MUNOZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6496252234</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NELSON JONATHAN CAMPOS ALONSO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6506437909</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CESAR IVAN OSORIO FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6442900324</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUSTAVO MORALES MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6483097329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARINA DE LA PAZ TORRES PUENTE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6500676940</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARICELA PONCE SANTANA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6477298149</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ENRIQUE PONCE ARREDONDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6458128257</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALBERTO SOTO CAJICA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373357667</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARBELLA DIAZ MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6463305718</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRUZ ELENA PEREZ INCLAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6492557677</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANIELA DOMINGUEZ GUTIERREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373347437</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANAYELI SOLANO GAYTAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6472617079</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIANA ALEJANDRA APARICIO SALAZAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6510099802</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELISA YAZMIN ARMENTA ROBLERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6516752412</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUEL ANGEL CONTRERAS PAVON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6507414766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GABRIELA GUADALUPE ROSADO AGUILAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6490586975</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FABIAN ULISES PEREZ FIGUEROA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6508429292</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OSWALDO ALFONSO GALINDO LIERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373307738</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROGELIO DIAZ RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494460524</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSA MARIA GUZMAN RICHARD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6457442220</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAURA RAQUEL ALEJO DEL ANGEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6458088824</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIANA ALONSO ANTONIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6514363766</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NESTOR HERNANDEZ ENRIQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505047246</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GABRIEL IGNACIO TRINIDAD</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6480473515</x:t>
+  </x:si>
+  <x:si>
+    <x:t>TERESA ARACELI MAGANA RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505043492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ANTONIO LOPEZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6483042614</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OMAR BLANCO CORTEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6468814946</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RITA DEL CARMEN ORTIZ PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6431969736</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CANDELARIA GUERRERO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6467851725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ERICK SALAS OLVERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6467856989</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARISELA GONZALEZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6468819366</x:t>
+  </x:si>
+  <x:si>
+    <x:t>KARLA LARISSA HERNANDEZ CORTEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6483049536</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARBELLA MARTINEZ MARIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6454680624</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN FERNANDO CUANALO PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485520666</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDUARDO FRANCISCO HERAS GAYOSSO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485520377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA ARACELI GONZALEZ ROMERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485490894</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUBY DENNYS LOPEZ AGUILAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6433098039</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FELIPE DE JESUS JACINTO RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6437941655</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GABRIELA RUIZ RUIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6498015563</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JULIA JIMENEZ MENDOZA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6513085899</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OCTAVIO CESAR RIVERA VICENCIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6507228166</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA DOLORES ROMERO MATEOS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6463862650</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSA GASCA RIVADENEYRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373448078</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANGEL LOPEZ LICONA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6374025297</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSEFINA ORTIZ RICANO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6374023904</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE HUGO MALDONADO OLIVER</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6456069370</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROBERTO CAYETANO ESCAMILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509269507</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAQUEL PABLO RODRIGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373980070</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BARBARITA CONCEPCION CASTILLO HERNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6500100081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FIDENCIA ARACELI GARCIA FRANCO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494429073</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARTHA PATRICIA DIAZ GARCIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6457446577</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VERONICA GUADALUPE SALAZAR PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6432825176</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN ANGEL CAZARES SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6454613559</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA DEL CARMEN PUENTE SALAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6495606877</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCISCO MANUEL OVALLE HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6497820906</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LESLI ALEJANDRA SILVA DANIEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6454878053</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PETRA CONEJO BUCIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6483288944</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LIZBETH CABALLERO CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6473436081</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA ESTHER FERNANDEZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484046580</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCISCO AVALOS SALOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484048495</x:t>
+  </x:si>
+  <x:si>
+    <x:t>IVETTE ADRIANA HERNANDEZ JERONIMO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6473440950</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FLOR DE MARIA GONZALEZ CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6473437725</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BLANCA ESTELA MAYO DOMINGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484050111</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LILIANA GUATEMALA PALMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484054139</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANTOS CECILIO MATEO MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6496411459</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEJANDRA YARELI VIDAL ARREOLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6478901956</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EMMANUEL REQUENA MEDINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6478906385</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RUBY GUADALUPE ESTRADA TORRES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373308587</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NUBIA JACQUELINE GARCIA OSUNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6506513972</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DULCE ANGELICA GARCIA PALMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6495461463</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA DEL SOCORRO TORRES FACIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6281389058</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE AGUSTIN PENUELA MARQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6493355006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIANA LAURA ESCOBEDO BASTIDAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6499203770</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA GUADALUPE ENRIQUEZ GUTIERREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373287534</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA DE LOS ANGELES VALENZUELA ACU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6480910482</x:t>
+  </x:si>
+  <x:si>
+    <x:t>REYNA DENISSE MARTINEZ PINA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6487007209</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CESIA ANTONIA AVILA RIVERA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6488577036</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANA PAULINA GARCIA LEYVA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505166749</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAUL NIDO VASQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6435294545</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AMELLALY HERNANDEZ ZAPATA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6452542487</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LETICIA GONZALEZ MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484527696</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSAURA VICENTA GOMEZ TAPIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6502502367</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DULCE GRITEL LAZARO GUZMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6502505527</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANAY YUCELMI LUJAN TORRALBA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373356438</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEJANDRO MEDINA ROQUE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6435292325</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEYDI YEDITH MENDEZ VASQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6436737047</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIEGO JIMENEZ GUZMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6454600861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>AVISAEL LEYVA GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6473497042</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JESUS ALEJANDRO GARCIA MENDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6513156617</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JORGE ALBERTO SANTIAGO GIJON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6276432707</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILIANS ZEMPOALTECATL MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6506438493</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VICTOR MENESES TLAPAYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373284549</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MA DE LOURDES MATA TORRES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485903128</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JULIO CESAR SOTO GUADARRAMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6499249344</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JESUS JAIMES VARELA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6440174955</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERGIO ALEJANDRO AVILA MACIEL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6499255622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LORENA PINA LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373357329</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YURINETH CRUZ JIMENEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6490380213</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EBER RAUL GUZMAN BLANCO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6490375445</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAMIRO LOPEZ PINEDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505372099</x:t>
+  </x:si>
+  <x:si>
+    <x:t>APOLINAR SOLORZA JIMENEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505378377</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CLAUDIO PARADA DIAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6471059638</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANDY ADILENE VARGAS MENCHACA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504193520</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VICTOR HUGO VAZQUEZ SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504199659</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ADRIANA BERENICE SAMBRANO SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6481818882</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SAMANTHA VIRIDIANA MUNOZ BECERRA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6480989353</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GLORIA ALONSO JASSO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505125646</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA DEL ROCIO CARRERA MADRIGAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373355869</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FACUNDO PRIMITIVO LOPEZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6467714006</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOVANY MILLAN CABANAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6486701752</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONICA RENDON FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6486702248</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YENI ITZEL RODRIGUEZ JUAREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6486705613</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JULIA LOZANO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504766630</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIRIAM EUFRACIO BENAVIDES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6504766622</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GERARDO PEREZ CASTANEDA</x:t>
   </x:si>
   <x:si>
     <x:t>6432121063</x:t>
@@ -350,34 +1514,16 @@
     <x:t>JESUS DANIEL GOVEA ORONA</x:t>
   </x:si>
   <x:si>
-    <x:t>6506513972</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DULCE ANGELICA GARCIA PALMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6495461463</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA DEL SOCORRO TORRES FACIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6281389058</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE AGUSTIN PENUELA MARQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6490586975</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FABIAN ULISES PEREZ FIGUEROA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6508429292</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OSWALDO ALFONSO GALINDO LIERA</x:t>
+    <x:t>6471441067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA REYNA RAMIREZ LANDA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6509498932</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CIRILO GONZALEZ MORAN</x:t>
   </x:si>
   <x:si>
     <x:t>6500360800</x:t>
@@ -536,10 +1682,28 @@
     <x:t>MARIA LUISA SEGOVIANO SALGADO</x:t>
   </x:si>
   <x:si>
-    <x:t>6471441067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA REYNA RAMIREZ LANDA</x:t>
+    <x:t>6506581581</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARTIN BERMUDEZ CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6374011289</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANDRES MARIANITO CATALAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6486967320</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARGARITA CASTRO PINTOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6449131154</x:t>
+  </x:si>
+  <x:si>
+    <x:t>OSCAR RAMIREZ QUIROZ</x:t>
   </x:si>
   <x:si>
     <x:t>6499252488</x:t>
@@ -578,6 +1742,24 @@
     <x:t>JUANA ITZEL CRUZ HERNANDEZ</x:t>
   </x:si>
   <x:si>
+    <x:t>6474287277</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANIEL ANTUNEZ GARCIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6474291402</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ALFREDO MONDRAGON FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6485898971</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CELSO PEREZ GALAN</x:t>
+  </x:si>
+  <x:si>
     <x:t>6504122321</x:t>
   </x:si>
   <x:si>
@@ -740,1138 +1922,448 @@
     <x:t>OSCAR PARRA SEDANO</x:t>
   </x:si>
   <x:si>
-    <x:t>6509269507</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAQUEL PABLO RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373980070</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BARBARITA CONCEPCION CASTILLO HERNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6500100081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FIDENCIA ARACELI GARCIA FRANCO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494429073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARTHA PATRICIA DIAZ GARCIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6457446577</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VERONICA GUADALUPE SALAZAR PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6432825176</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN ANGEL CAZARES SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6454613559</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA DEL CARMEN PUENTE SALAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6495606877</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRANCISCO MANUEL OVALLE HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6497820906</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LESLI ALEJANDRA SILVA DANIEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6454878053</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PETRA CONEJO BUCIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6483288944</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LIZBETH CABALLERO CRUZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6437941655</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GABRIELA RUIZ RUIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6498015563</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JULIA JIMENEZ MENDOZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6513085899</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OCTAVIO CESAR RIVERA VICENCIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6507228166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA DOLORES ROMERO MATEOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6463862650</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSA GASCA RIVADENEYRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373448078</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANGEL LOPEZ LICONA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6374025297</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSEFINA ORTIZ RICANO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6374023904</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE HUGO MALDONADO OLIVER</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6456069370</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROBERTO CAYETANO ESCAMILLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6473436081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA ESTHER FERNANDEZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484046580</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRANCISCO AVALOS SALOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484048495</x:t>
-  </x:si>
-  <x:si>
-    <x:t>IVETTE ADRIANA HERNANDEZ JERONIMO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6473440950</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FLOR DE MARIA GONZALEZ CRUZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6473437725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BLANCA ESTELA MAYO DOMINGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484050111</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LILIANA GUATEMALA PALMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484054139</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SANTOS CECILIO MATEO MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6496411459</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALEJANDRA YARELI VIDAL ARREOLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6516752412</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL ANGEL CONTRERAS PAVON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6507414766</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GABRIELA GUADALUPE ROSADO AGUILAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6478901956</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EMMANUEL REQUENA MEDINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6478906385</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RUBY GUADALUPE ESTRADA TORRES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373308587</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NUBIA JACQUELINE GARCIA OSUNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6493355006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIANA LAURA ESCOBEDO BASTIDAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6499203770</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA GUADALUPE ENRIQUEZ GUTIERREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373287534</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA DE LOS ANGELES VALENZUELA ACU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6480910482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REYNA DENISSE MARTINEZ PINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6487007209</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CESIA ANTONIA AVILA RIVERA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6488577036</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANA PAULINA GARCIA LEYVA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505166749</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAUL NIDO VASQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6435294545</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMELLALY HERNANDEZ ZAPATA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6452542487</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LETICIA GONZALEZ MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484527696</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSAURA VICENTA GOMEZ TAPIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6502502367</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DULCE GRITEL LAZARO GUZMAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6502505527</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANAY YUCELMI LUJAN TORRALBA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373356438</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALEJANDRO MEDINA ROQUE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6435292325</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEYDI YEDITH MENDEZ VASQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6436737047</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIEGO JIMENEZ GUZMAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6454600861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AVISAEL LEYVA GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6473497042</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JESUS ALEJANDRO GARCIA MENDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6513156617</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JORGE ALBERTO SANTIAGO GIJON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6276432707</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WILIANS ZEMPOALTECATL MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6506438493</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VICTOR MENESES TLAPAYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373284549</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MA DE LOURDES MATA TORRES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485903128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JULIO CESAR SOTO GUADARRAMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6499249344</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JESUS JAIMES VARELA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6440174955</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SERGIO ALEJANDRO AVILA MACIEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6499255622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LORENA PINA LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373357329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YURINETH CRUZ JIMENEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6490380213</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EBER RAUL GUZMAN BLANCO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6490375445</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAMIRO LOPEZ PINEDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505372099</x:t>
-  </x:si>
-  <x:si>
-    <x:t>APOLINAR SOLORZA JIMENEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505378377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CLAUDIO PARADA DIAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6471059638</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SANDY ADILENE VARGAS MENCHACA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504193520</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VICTOR HUGO VAZQUEZ SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504199659</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ADRIANA BERENICE SAMBRANO SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6481818882</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAMANTHA VIRIDIANA MUNOZ BECERRA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6480989353</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GLORIA ALONSO JASSO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505125646</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA DEL ROCIO CARRERA MADRIGAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373355869</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FACUNDO PRIMITIVO LOPEZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6467714006</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOVANY MILLAN CABANAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6486701752</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MONICA RENDON FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6486702248</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YENI ITZEL RODRIGUEZ JUAREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6486705613</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JULIA LOZANO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504766630</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIRIAM EUFRACIO BENAVIDES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504766622</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GERARDO PEREZ CASTANEDA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373453235</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YADIRA LETICIA IZAGUIRRE GUERRERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6438342721</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JORGE RESENDEZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6470288667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GABINO PINA DEVEZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6489321392</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JESSICA ESMERALDA RIVERA DEL ANGEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6302860005</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIO ALBERTO QUINTERO MEDINA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6487461976</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARGARITA CRUZ DEL ANGEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6457966400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PATRICIA AUDELIA LOPEZ OCHOA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6499217135</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SERGIO FELICIANO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373310393</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRUMENCIO CRUZ EUGENIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6468525542</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAIRA EVELYN MENDOZA DIAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6481096422</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KARINA AMADA MOJICA ORTIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6481738999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAYRA ALEJANDRA PARADA VAZQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6510099802</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELISA YAZMIN ARMENTA ROBLERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6500676940</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARICELA PONCE SANTANA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6477298149</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ENRIQUE PONCE ARREDONDO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6458128257</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALBERTO SOTO CAJICA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373357667</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARBELLA DIAZ MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6463305718</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRUZ ELENA PEREZ INCLAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6492557677</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANIELA DOMINGUEZ GUTIERREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373347437</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANAYELI SOLANO GAYTAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6472617079</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIANA ALEJANDRA APARICIO SALAZAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509429978</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRANCISCO JAVIER ARREGUIN FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6501389857</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN ALBERTO MALDONADO RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6508403156</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SAYRA ANGELICA VELAZQUEZ MENDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6456774490</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA DE LA CONCEPCION IBARRA RAMIR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6478796299</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA BERENICE REYNA ROSALES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6455306682</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ALBERTO ROCHA RAMIREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6465603136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALEJANDRO RUIZ SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6465606030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELVIRA MARISOL AVILA ALVAREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6492506252</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS FELIPE PEREZ VAZQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6507268212</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUADALUPE ITZEL RAMIREZ MUNOZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6496252234</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NELSON JONATHAN CAMPOS ALONSO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6506437909</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CESAR IVAN OSORIO FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6442900324</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUSTAVO MORALES MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6483097329</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KARINA DE LA PAZ TORRES PUENTE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373307738</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROGELIO DIAZ RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494460524</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSA MARIA GUZMAN RICHARD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6457442220</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAURA RAQUEL ALEJO DEL ANGEL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6458088824</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIANA ALONSO ANTONIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6514363766</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NESTOR HERNANDEZ ENRIQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505047246</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GABRIEL IGNACIO TRINIDAD</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6480473515</x:t>
-  </x:si>
-  <x:si>
-    <x:t>TERESA ARACELI MAGANA RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505043492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ANTONIO LOPEZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6483042614</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OMAR BLANCO CORTEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6468814946</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RITA DEL CARMEN ORTIZ PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6431969736</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CANDELARIA GUERRERO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6467851725</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERICK SALAS OLVERA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6467856989</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARISELA GONZALEZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6468819366</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KARLA LARISSA HERNANDEZ CORTEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6483049536</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARBELLA MARTINEZ MARIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6454680624</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN FERNANDO CUANALO PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485520666</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EDUARDO FRANCISCO HERAS GAYOSSO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485520377</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA ARACELI GONZALEZ ROMERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485490894</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RUBY DENNYS LOPEZ AGUILAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6433098039</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FELIPE DE JESUS JACINTO RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6482058595</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSUE CONDE PERDOMO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6482062779</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EDUARDO JUAREZ OLIVARES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6452723673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ABRAHAM CAUICH UICAB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6465978561</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CINTHIA MARIBEL SIMA DURAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6489692073</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YAMILI GISELA CHAN HERRERA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6489696199</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERASMO EMANUEL LUNA SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6489696587</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL ANGEL GOMEZ FELIX</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373450694</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RENE HERNANDEZ ROMERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6358416835</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANAHI SOBERANIZ LAZARO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6456982119</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSA HERNANDEZ CORONA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504033999</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ARELI DOMINGUEZ JIMENEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6504036125</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANA LUISA SOSA SAYAGO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373376469</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE EUSTAQUIO HUCHIM CAAMAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373376485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL ANGEL CHAN HAU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373991705</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ESTEFANY YUACIM ROSADO HUCHIM</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6456901762</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FERNANDO ALONSO TUN MENDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6482994971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LORENA MARISOL DZIB MAZUN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6482995440</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS JOSE PERERA POOL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6501597202</x:t>
-  </x:si>
-  <x:si>
-    <x:t>KAROL JOSEF RIVERO CHAVEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6501500081</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAUL BELTRAN SOLIS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509414343</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELIZABETH GARCIA HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6497749485</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERIKA ADRIANA LIMON HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509410523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SURI MIGUEL RODRIGUEZ MENDOZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505374160</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERIKA SANTIAGO VASQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6449111834</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FELICIA CUBA LEON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485286581</x:t>
-  </x:si>
-  <x:si>
-    <x:t>AMANDA GUZMAN MORENO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485288504</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YANET RAMIREZ SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509898776</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DULCE MARIA RODRIGUEZ CASTILLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6380845910</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALFREDO AVILA VILLARREAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6457967085</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELENA JUDITH GALINDO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373976128</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALMA DELIA TALAVERA BERNAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373448482</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SONIA ALVARADO GONZALEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373976201</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSALIO MARTINEZ AGUIRRE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6459193870</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAYRA PATRICIA BAUTISTA ORTIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6516450819</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIRIAM ISABEL GARCIA QUINTERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6481175523</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARTHA LIZETH ALVARADO MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6502800530</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROCIO LOPEZ BUSTOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6502801611</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BRENDA EDITH MALDONADO DE LA CRUZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6492557644</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NAYIELI JOSEFINA HERNANDEZ SANTOS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6507753288</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS ANGEL PIMENTEL BARTOLO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373261448</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOEL REYES CANO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6476634211</x:t>
-  </x:si>
-  <x:si>
-    <x:t>REYNA LILIANA ALVARADO FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485359818</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSELINE NAYELI GONZALEZ LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6481209397</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NOE ALEJANDRO DIAZ MENDOZA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6423281140</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE JUAN PEREZ FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6465750846</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIBEL MARIN HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6503897709</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSAFAT YAIR MELO CHONG</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6512211827</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DALICE ZUMAYA REYES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6374029166</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEON SANCHEZ RODRIGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484276112</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE MIGUEL GUZMAN GALICIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484278522</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SALVADOR SANCHEZ NIEVES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484617018</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ERENDIRA VERONICA FLORES VIVEROS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6512035671</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUANA VARGAS HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6500171892</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE MANUEL HUERTA CARMONA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6500175794</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JESUS ELIAS BRAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373294506</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANA CRISTINA LOPEZ MAYA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6493952489</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE CARMELO MAYORGA PONCE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6478605391</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL ANGEL VARELA CRUZ</x:t>
+    <x:t>6373348872</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VIRGINIA SERRANO FAJARDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6374028903</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEISY ANAYELI SANCHEZ ELIONIDES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6452733896</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EURYDICE SANCHEZ DIAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6452734100</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VERONICA SIMON CARMONA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6432751372</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAURICIO CORTES PORTILLA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6479485421</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GAUDENCIO NAVA SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6486974136</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JORGE ASTUDILLO JIMENEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6387038923</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ANASTACIO ACOSTA CHABLE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6489325609</x:t>
+  </x:si>
+  <x:si>
+    <x:t>WILLIAM MIGUEL CAUICH TUYUB</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494360468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCISCO XAVIER VARGAS HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6450241785</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCISCO JAVIER BAUTISTA VAZQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494365400</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ZULEIMA ESTHER MARTINEZ CERVANTES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6474187063</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAMILO EDUARDO REYES TRANQUILINO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494361573</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MONICA TRINIDAD PECERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6499185985</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MIGUEL OCTAVIO RODRIGUEZ ORTIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6492478908</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VERONICA SANTIAGO GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6460399151</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LEOBARDO VILLANUEVA TOMATZIN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373261893</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DENIA MIRELLA CRUZ PELAEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373261885</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEJANDRO BELMONT VELEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494503901</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALFREDO HERNANDEZ SALMERON</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373988636</x:t>
+  </x:si>
+  <x:si>
+    <x:t>YENNY PLACIDO AGUERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6438343653</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LILIANA MORALES BORGUA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6471395271</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GIOVANNA VALERIA ROJAS HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6479484341</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JAVIER REYES HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6479484861</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ARMANDO GASPAR ROSENDO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6483048017</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CARLOS ALBERTO DOTTI GARCIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6455717995</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BRENDA LETICIA GARCIA FLORES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6468868025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>RAQUEL HERNANDEZ DOMINGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6511031598</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE HAGGI MALDONADO LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6502372902</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA GUADALUPE FERRAL GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6483022376</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CONCEPCION YADIRA CAMACHO SANJUAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6490793175</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DIANA LAURA CANO LUMBRERAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373461501</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LORENA SALGADO RUIZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6477622025</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN REYES DELFIN COLI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6501366251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MISAEL SANCHEZ TAPIA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6501366814</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BEATRIZ NATALIA ARAUZ LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6474293820</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELIZABETH PEREZ PAZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6511073236</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAOLA ACOSTA NUNEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6500347658</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS ANGEL SANCHEZ FONS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6503761251</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CHRISTIAN ARACELY HUCHIN CANUL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6503762465</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEJANDRA GUADALUPE VELUETA DOMINGU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6514624308</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALEJANDRA GARCIA BETANCOURT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6452730371</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ELIA CANO GOMEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6391612044</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDGAR DAVID KANTUN YAMA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505345673</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDGAR NICOLAS MENDEZ CRUZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6498891492</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LAZARO ALEJANDRO VERGARA DOMINGUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6514558456</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LILIA ALVARADO MARTINEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6497723597</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE LUIS DOMINGUEZ MALDONADO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6296988274</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SERGIO ENRIQUE HERNANDEZ ACOPA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6489752554</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FRANCO GOMEZ GONZALEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6497723647</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NECTALI SANCHEZ VAZQUEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6399314502</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PABLO ANTONIO CERVANTES MENESES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6508632739</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FREDY TECOLAPA PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6494508546</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LUIS ALBERTO CORTES HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6486967817</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JUAN LUIS BAUTISTA PASTOR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6508635468</x:t>
+  </x:si>
+  <x:si>
+    <x:t>EDGAR RIOS SOLANO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373293334</x:t>
+  </x:si>
+  <x:si>
+    <x:t>DANIEL SOTO GALVAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373990640</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MARIA AIDE ESPEJEL EUGENIO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6470326095</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUADALUPE CLATENCO LOPEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6480980576</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CAROLINA ROMO MOGOYAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6491440362</x:t>
+  </x:si>
+  <x:si>
+    <x:t>GUADALUPE MEDINA QUINTERO</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373306763</x:t>
+  </x:si>
+  <x:si>
+    <x:t>NORMA SILVA SALAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373951030</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABRAHAM DIAZ PEREZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6481061137</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ROSA STEFFANY ORTIZ GERMAN</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6510877942</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MAYRA HERNANDEZ CANIZAL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484224518</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE MIGUEL BRAVO HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6484373067</x:t>
+  </x:si>
+  <x:si>
+    <x:t>CRISTIHAN DANIEL ROJAS HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6491755629</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ALAN JOSUE GONZALEZ RIVAS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6401669126</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BERENICE CRUZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6500543777</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LADY ESTEFANY GONZALEZ SANCHEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6457155921</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANA SALOME FERNANDEZ GUEVARA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6505416557</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANDREA SARAHI BACA AGUILAR</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6373448219</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SALOMON HERNANDEZ HERNANDEZ</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6438777298</x:t>
+  </x:si>
+  <x:si>
+    <x:t>LINDA YADIRA ROSAS GONZALEZ</x:t>
   </x:si>
   <x:si>
     <x:t>6464502982</x:t>
@@ -1940,496 +2432,16 @@
     <x:t>KARLA BELEM GRAJALES GUTIERREZ</x:t>
   </x:si>
   <x:si>
-    <x:t>6373348872</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VIRGINIA SERRANO FAJARDO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6374028903</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEISY ANAYELI SANCHEZ ELIONIDES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6452733896</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EURYDICE SANCHEZ DIAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6452734100</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VERONICA SIMON CARMONA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6432751372</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAURICIO CORTES PORTILLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6479485421</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GAUDENCIO NAVA SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6486974136</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JORGE ASTUDILLO JIMENEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6387038923</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ANASTACIO ACOSTA CHABLE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6489325609</x:t>
-  </x:si>
-  <x:si>
-    <x:t>WILLIAM MIGUEL CAUICH TUYUB</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494360468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRANCISCO XAVIER VARGAS HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6450241785</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRANCISCO JAVIER BAUTISTA VAZQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494365400</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ZULEIMA ESTHER MARTINEZ CERVANTES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6474187063</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAMILO EDUARDO REYES TRANQUILINO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494361573</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MONICA TRINIDAD PECERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6499185985</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MIGUEL OCTAVIO RODRIGUEZ ORTIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6492478908</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VERONICA SANTIAGO GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6460399151</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LEOBARDO VILLANUEVA TOMATZIN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6501366251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MISAEL SANCHEZ TAPIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6501366814</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BEATRIZ NATALIA ARAUZ LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6474293820</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELIZABETH PEREZ PAZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6511073236</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PAOLA ACOSTA NUNEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6500347658</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS ANGEL SANCHEZ FONS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6503761251</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CHRISTIAN ARACELY HUCHIN CANUL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6503762465</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALEJANDRA GUADALUPE VELUETA DOMINGU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6514624308</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALEJANDRA GARCIA BETANCOURT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6452730371</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ELIA CANO GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6391612044</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EDGAR DAVID KANTUN YAMA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505345673</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EDGAR NICOLAS MENDEZ CRUZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6498891492</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LAZARO ALEJANDRO VERGARA DOMINGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6514558456</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LILIA ALVARADO MARTINEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6497723597</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE LUIS DOMINGUEZ MALDONADO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6296988274</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SERGIO ENRIQUE HERNANDEZ ACOPA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6489752554</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FRANCO GOMEZ GONZALEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6497723647</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NECTALI SANCHEZ VAZQUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6399314502</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PABLO ANTONIO CERVANTES MENESES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6483048017</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CARLOS ALBERTO DOTTI GARCIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6455717995</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BRENDA LETICIA GARCIA FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6468868025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>RAQUEL HERNANDEZ DOMINGUEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6511031598</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE HAGGI MALDONADO LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6509498932</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CIRILO GONZALEZ MORAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373261893</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DENIA MIRELLA CRUZ PELAEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373261885</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALEJANDRO BELMONT VELEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494503901</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALFREDO HERNANDEZ SALMERON</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373988636</x:t>
-  </x:si>
-  <x:si>
-    <x:t>YENNY PLACIDO AGUERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6438343653</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LILIANA MORALES BORGUA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6471395271</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GIOVANNA VALERIA ROJAS HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6479484341</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JAVIER REYES HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6479484861</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ARMANDO GASPAR ROSENDO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6508632739</x:t>
-  </x:si>
-  <x:si>
-    <x:t>FREDY TECOLAPA PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6494508546</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LUIS ALBERTO CORTES HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6486967817</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN LUIS BAUTISTA PASTOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6508635468</x:t>
-  </x:si>
-  <x:si>
-    <x:t>EDGAR RIOS SOLANO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373293334</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANIEL SOTO GALVAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373990640</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA AIDE ESPEJEL EUGENIO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6470326095</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUADALUPE CLATENCO LOPEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6480980576</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CAROLINA ROMO MOGOYAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6491440362</x:t>
-  </x:si>
-  <x:si>
-    <x:t>GUADALUPE MEDINA QUINTERO</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373306763</x:t>
-  </x:si>
-  <x:si>
-    <x:t>NORMA SILVA SALAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373951030</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABRAHAM DIAZ PEREZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6506581581</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARTIN BERMUDEZ CRUZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6474287277</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DANIEL ANTUNEZ GARCIA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6474291402</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ALFREDO MONDRAGON FLORES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6485898971</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CELSO PEREZ GALAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6374011289</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANDRES MARIANITO CATALAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6486967320</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARGARITA CASTRO PINTOR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6449131154</x:t>
-  </x:si>
-  <x:si>
-    <x:t>OSCAR RAMIREZ QUIROZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6502372902</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MARIA GUADALUPE FERRAL GOMEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6483022376</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CONCEPCION YADIRA CAMACHO SANJUAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6490793175</x:t>
-  </x:si>
-  <x:si>
-    <x:t>DIANA LAURA CANO LUMBRERAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373461501</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LORENA SALGADO RUIZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6477622025</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JUAN REYES DELFIN COLI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6481061137</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ROSA STEFFANY ORTIZ GERMAN</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6510877942</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MAYRA HERNANDEZ CANIZAL</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484224518</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE MIGUEL BRAVO HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6484373067</x:t>
-  </x:si>
-  <x:si>
-    <x:t>CRISTIHAN DANIEL ROJAS HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6491755629</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ALAN JOSUE GONZALEZ RIVAS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6401669126</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BERENICE CRUZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6500543777</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LADY ESTEFANY GONZALEZ SANCHEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6457155921</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANA SALOME FERNANDEZ GUEVARA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6505416557</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ANDREA SARAHI BACA AGUILAR</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6373448219</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SALOMON HERNANDEZ HERNANDEZ</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6438777298</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LINDA YADIRA ROSAS GONZALEZ</x:t>
+    <x:t>6515170608</x:t>
+  </x:si>
+  <x:si>
+    <x:t>JOSE ARMANDO HUERTA CERVANTES</x:t>
+  </x:si>
+  <x:si>
+    <x:t>6462211891</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HERIBERTO SOLIS PEREZ</x:t>
   </x:si>
   <x:si>
     <x:t>6461048559</x:t>
@@ -2442,18 +2454,6 @@
   </x:si>
   <x:si>
     <x:t>LUIS FERNANDO MARTINEZ LAGUNA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6515170608</x:t>
-  </x:si>
-  <x:si>
-    <x:t>JOSE ARMANDO HUERTA CERVANTES</x:t>
-  </x:si>
-  <x:si>
-    <x:t>6462211891</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HERIBERTO SOLIS PEREZ</x:t>
   </x:si>
   <x:si>
     <x:t>6493006633</x:t>
@@ -2827,7 +2827,7 @@
         <x:v>8</x:v>
       </x:c>
       <x:c r="B2">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C2" t="s">
         <x:v>7</x:v>
@@ -2841,7 +2841,7 @@
         <x:v>10</x:v>
       </x:c>
       <x:c r="B3">
-        <x:v>2946.169921875</x:v>
+        <x:v>3440.84</x:v>
       </x:c>
       <x:c r="C3" t="s">
         <x:v>7</x:v>
@@ -2855,7 +2855,7 @@
         <x:v>12</x:v>
       </x:c>
       <x:c r="B4">
-        <x:v>3440.84008789063</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C4" t="s">
         <x:v>7</x:v>
@@ -2869,7 +2869,7 @@
         <x:v>14</x:v>
       </x:c>
       <x:c r="B5">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C5" t="s">
         <x:v>7</x:v>
@@ -2883,7 +2883,7 @@
         <x:v>16</x:v>
       </x:c>
       <x:c r="B6">
-        <x:v>632.950012207031</x:v>
+        <x:v>632.95</x:v>
       </x:c>
       <x:c r="C6" t="s">
         <x:v>7</x:v>
@@ -2897,7 +2897,7 @@
         <x:v>18</x:v>
       </x:c>
       <x:c r="B7">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C7" t="s">
         <x:v>7</x:v>
@@ -2911,7 +2911,7 @@
         <x:v>20</x:v>
       </x:c>
       <x:c r="B8">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C8" t="s">
         <x:v>7</x:v>
@@ -2925,7 +2925,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="B9">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C9" t="s">
         <x:v>7</x:v>
@@ -2939,7 +2939,7 @@
         <x:v>24</x:v>
       </x:c>
       <x:c r="B10">
-        <x:v>2946.169921875</x:v>
+        <x:v>2800.52</x:v>
       </x:c>
       <x:c r="C10" t="s">
         <x:v>7</x:v>
@@ -2953,7 +2953,7 @@
         <x:v>26</x:v>
       </x:c>
       <x:c r="B11">
-        <x:v>2800.52001953125</x:v>
+        <x:v>1131.47</x:v>
       </x:c>
       <x:c r="C11" t="s">
         <x:v>7</x:v>
@@ -2967,7 +2967,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="B12">
-        <x:v>1131.46997070313</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C12" t="s">
         <x:v>7</x:v>
@@ -2981,7 +2981,7 @@
         <x:v>30</x:v>
       </x:c>
       <x:c r="B13">
-        <x:v>4926.740234375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C13" t="s">
         <x:v>7</x:v>
@@ -2995,7 +2995,7 @@
         <x:v>32</x:v>
       </x:c>
       <x:c r="B14">
-        <x:v>3752.94995117188</x:v>
+        <x:v>443.52</x:v>
       </x:c>
       <x:c r="C14" t="s">
         <x:v>7</x:v>
@@ -3009,7 +3009,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="B15">
-        <x:v>4821.7099609375</x:v>
+        <x:v>1510.59</x:v>
       </x:c>
       <x:c r="C15" t="s">
         <x:v>7</x:v>
@@ -3023,7 +3023,7 @@
         <x:v>36</x:v>
       </x:c>
       <x:c r="B16">
-        <x:v>6183.5</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C16" t="s">
         <x:v>7</x:v>
@@ -3037,7 +3037,7 @@
         <x:v>38</x:v>
       </x:c>
       <x:c r="B17">
-        <x:v>3944.84008789063</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C17" t="s">
         <x:v>7</x:v>
@@ -3051,7 +3051,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="B18">
-        <x:v>2946.169921875</x:v>
+        <x:v>3274.19</x:v>
       </x:c>
       <x:c r="C18" t="s">
         <x:v>7</x:v>
@@ -3065,7 +3065,7 @@
         <x:v>42</x:v>
       </x:c>
       <x:c r="B19">
-        <x:v>2946.169921875</x:v>
+        <x:v>3499.6</x:v>
       </x:c>
       <x:c r="C19" t="s">
         <x:v>7</x:v>
@@ -3079,7 +3079,7 @@
         <x:v>44</x:v>
       </x:c>
       <x:c r="B20">
-        <x:v>14428.1103515625</x:v>
+        <x:v>3114.78</x:v>
       </x:c>
       <x:c r="C20" t="s">
         <x:v>7</x:v>
@@ -3093,7 +3093,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="B21">
-        <x:v>3274.18994140625</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C21" t="s">
         <x:v>7</x:v>
@@ -3107,7 +3107,7 @@
         <x:v>48</x:v>
       </x:c>
       <x:c r="B22">
-        <x:v>3499.60009765625</x:v>
+        <x:v>4926.74</x:v>
       </x:c>
       <x:c r="C22" t="s">
         <x:v>7</x:v>
@@ -3121,7 +3121,7 @@
         <x:v>50</x:v>
       </x:c>
       <x:c r="B23">
-        <x:v>3114.78002929688</x:v>
+        <x:v>3752.95</x:v>
       </x:c>
       <x:c r="C23" t="s">
         <x:v>7</x:v>
@@ -3135,7 +3135,7 @@
         <x:v>52</x:v>
       </x:c>
       <x:c r="B24">
-        <x:v>4528.169921875</x:v>
+        <x:v>4821.71</x:v>
       </x:c>
       <x:c r="C24" t="s">
         <x:v>7</x:v>
@@ -3149,7 +3149,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="B25">
-        <x:v>2946.169921875</x:v>
+        <x:v>6183.5</x:v>
       </x:c>
       <x:c r="C25" t="s">
         <x:v>7</x:v>
@@ -3163,7 +3163,7 @@
         <x:v>56</x:v>
       </x:c>
       <x:c r="B26">
-        <x:v>2946.169921875</x:v>
+        <x:v>3944.84</x:v>
       </x:c>
       <x:c r="C26" t="s">
         <x:v>7</x:v>
@@ -3177,7 +3177,7 @@
         <x:v>58</x:v>
       </x:c>
       <x:c r="B27">
-        <x:v>443.519989013672</x:v>
+        <x:v>14030.78</x:v>
       </x:c>
       <x:c r="C27" t="s">
         <x:v>7</x:v>
@@ -3191,7 +3191,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="B28">
-        <x:v>1510.58996582031</x:v>
+        <x:v>14742.13</x:v>
       </x:c>
       <x:c r="C28" t="s">
         <x:v>7</x:v>
@@ -3205,7 +3205,7 @@
         <x:v>62</x:v>
       </x:c>
       <x:c r="B29">
-        <x:v>2946.169921875</x:v>
+        <x:v>14030.78</x:v>
       </x:c>
       <x:c r="C29" t="s">
         <x:v>7</x:v>
@@ -3219,7 +3219,7 @@
         <x:v>64</x:v>
       </x:c>
       <x:c r="B30">
-        <x:v>2946.169921875</x:v>
+        <x:v>21137.35</x:v>
       </x:c>
       <x:c r="C30" t="s">
         <x:v>7</x:v>
@@ -3233,7 +3233,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="B31">
-        <x:v>14030.7802734375</x:v>
+        <x:v>12179.19</x:v>
       </x:c>
       <x:c r="C31" t="s">
         <x:v>7</x:v>
@@ -3247,7 +3247,7 @@
         <x:v>68</x:v>
       </x:c>
       <x:c r="B32">
-        <x:v>14742.1298828125</x:v>
+        <x:v>11943.27</x:v>
       </x:c>
       <x:c r="C32" t="s">
         <x:v>7</x:v>
@@ -3261,7 +3261,7 @@
         <x:v>70</x:v>
       </x:c>
       <x:c r="B33">
-        <x:v>14030.7802734375</x:v>
+        <x:v>17023.76</x:v>
       </x:c>
       <x:c r="C33" t="s">
         <x:v>7</x:v>
@@ -3275,7 +3275,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="B34">
-        <x:v>21137.349609375</x:v>
+        <x:v>6730.51</x:v>
       </x:c>
       <x:c r="C34" t="s">
         <x:v>7</x:v>
@@ -3289,7 +3289,7 @@
         <x:v>74</x:v>
       </x:c>
       <x:c r="B35">
-        <x:v>12179.1904296875</x:v>
+        <x:v>6910.73</x:v>
       </x:c>
       <x:c r="C35" t="s">
         <x:v>7</x:v>
@@ -3303,7 +3303,7 @@
         <x:v>76</x:v>
       </x:c>
       <x:c r="B36">
-        <x:v>11943.26953125</x:v>
+        <x:v>9195.04</x:v>
       </x:c>
       <x:c r="C36" t="s">
         <x:v>7</x:v>
@@ -3317,7 +3317,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="B37">
-        <x:v>17023.759765625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C37" t="s">
         <x:v>7</x:v>
@@ -3331,7 +3331,7 @@
         <x:v>80</x:v>
       </x:c>
       <x:c r="B38">
-        <x:v>6730.509765625</x:v>
+        <x:v>2258.41</x:v>
       </x:c>
       <x:c r="C38" t="s">
         <x:v>7</x:v>
@@ -3345,7 +3345,7 @@
         <x:v>82</x:v>
       </x:c>
       <x:c r="B39">
-        <x:v>6910.72998046875</x:v>
+        <x:v>2176.53</x:v>
       </x:c>
       <x:c r="C39" t="s">
         <x:v>7</x:v>
@@ -3359,7 +3359,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="B40">
-        <x:v>9195.0400390625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C40" t="s">
         <x:v>7</x:v>
@@ -3373,7 +3373,7 @@
         <x:v>86</x:v>
       </x:c>
       <x:c r="B41">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C41" t="s">
         <x:v>7</x:v>
@@ -3387,7 +3387,7 @@
         <x:v>88</x:v>
       </x:c>
       <x:c r="B42">
-        <x:v>3671.27001953125</x:v>
+        <x:v>3246.17</x:v>
       </x:c>
       <x:c r="C42" t="s">
         <x:v>7</x:v>
@@ -3401,7 +3401,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="B43">
-        <x:v>6498.72998046875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C43" t="s">
         <x:v>7</x:v>
@@ -3415,7 +3415,7 @@
         <x:v>92</x:v>
       </x:c>
       <x:c r="B44">
-        <x:v>2946.169921875</x:v>
+        <x:v>5156.88</x:v>
       </x:c>
       <x:c r="C44" t="s">
         <x:v>7</x:v>
@@ -3429,7 +3429,7 @@
         <x:v>94</x:v>
       </x:c>
       <x:c r="B45">
-        <x:v>2729.07006835938</x:v>
+        <x:v>5694.84</x:v>
       </x:c>
       <x:c r="C45" t="s">
         <x:v>7</x:v>
@@ -3443,7 +3443,7 @@
         <x:v>96</x:v>
       </x:c>
       <x:c r="B46">
-        <x:v>1364.34997558594</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C46" t="s">
         <x:v>7</x:v>
@@ -3457,7 +3457,7 @@
         <x:v>98</x:v>
       </x:c>
       <x:c r="B47">
-        <x:v>2235.52001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C47" t="s">
         <x:v>7</x:v>
@@ -3471,7 +3471,7 @@
         <x:v>100</x:v>
       </x:c>
       <x:c r="B48">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C48" t="s">
         <x:v>7</x:v>
@@ -3485,7 +3485,7 @@
         <x:v>102</x:v>
       </x:c>
       <x:c r="B49">
-        <x:v>2573.05004882813</x:v>
+        <x:v>5102.89</x:v>
       </x:c>
       <x:c r="C49" t="s">
         <x:v>7</x:v>
@@ -3499,7 +3499,7 @@
         <x:v>104</x:v>
       </x:c>
       <x:c r="B50">
-        <x:v>4927.89990234375</x:v>
+        <x:v>4043.73</x:v>
       </x:c>
       <x:c r="C50" t="s">
         <x:v>7</x:v>
@@ -3513,7 +3513,7 @@
         <x:v>106</x:v>
       </x:c>
       <x:c r="B51">
-        <x:v>2942.55004882813</x:v>
+        <x:v>1823.77</x:v>
       </x:c>
       <x:c r="C51" t="s">
         <x:v>7</x:v>
@@ -3527,7 +3527,7 @@
         <x:v>108</x:v>
       </x:c>
       <x:c r="B52">
-        <x:v>1512.56994628906</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C52" t="s">
         <x:v>7</x:v>
@@ -3541,7 +3541,7 @@
         <x:v>110</x:v>
       </x:c>
       <x:c r="B53">
-        <x:v>4149.2001953125</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C53" t="s">
         <x:v>7</x:v>
@@ -3555,7 +3555,7 @@
         <x:v>112</x:v>
       </x:c>
       <x:c r="B54">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2137.31</x:v>
       </x:c>
       <x:c r="C54" t="s">
         <x:v>7</x:v>
@@ -3569,7 +3569,7 @@
         <x:v>114</x:v>
       </x:c>
       <x:c r="B55">
-        <x:v>1823.52001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C55" t="s">
         <x:v>7</x:v>
@@ -3583,7 +3583,7 @@
         <x:v>116</x:v>
       </x:c>
       <x:c r="B56">
-        <x:v>8404.3095703125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C56" t="s">
         <x:v>7</x:v>
@@ -3597,7 +3597,7 @@
         <x:v>118</x:v>
       </x:c>
       <x:c r="B57">
-        <x:v>5701.93994140625</x:v>
+        <x:v>5752.91</x:v>
       </x:c>
       <x:c r="C57" t="s">
         <x:v>7</x:v>
@@ -3611,7 +3611,7 @@
         <x:v>120</x:v>
       </x:c>
       <x:c r="B58">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C58" t="s">
         <x:v>7</x:v>
@@ -3625,7 +3625,7 @@
         <x:v>122</x:v>
       </x:c>
       <x:c r="B59">
-        <x:v>2112.18994140625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C59" t="s">
         <x:v>7</x:v>
@@ -3639,7 +3639,7 @@
         <x:v>124</x:v>
       </x:c>
       <x:c r="B60">
-        <x:v>2946.169921875</x:v>
+        <x:v>5263.52</x:v>
       </x:c>
       <x:c r="C60" t="s">
         <x:v>7</x:v>
@@ -3653,7 +3653,7 @@
         <x:v>126</x:v>
       </x:c>
       <x:c r="B61">
-        <x:v>4583.509765625</x:v>
+        <x:v>2520.35</x:v>
       </x:c>
       <x:c r="C61" t="s">
         <x:v>7</x:v>
@@ -3667,7 +3667,7 @@
         <x:v>128</x:v>
       </x:c>
       <x:c r="B62">
-        <x:v>1974.78002929688</x:v>
+        <x:v>5752.91</x:v>
       </x:c>
       <x:c r="C62" t="s">
         <x:v>7</x:v>
@@ -3681,7 +3681,7 @@
         <x:v>130</x:v>
       </x:c>
       <x:c r="B63">
-        <x:v>4071.330078125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C63" t="s">
         <x:v>7</x:v>
@@ -3695,7 +3695,7 @@
         <x:v>132</x:v>
       </x:c>
       <x:c r="B64">
-        <x:v>1526.25</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C64" t="s">
         <x:v>7</x:v>
@@ -3709,7 +3709,7 @@
         <x:v>134</x:v>
       </x:c>
       <x:c r="B65">
-        <x:v>2946.169921875</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C65" t="s">
         <x:v>7</x:v>
@@ -3723,7 +3723,7 @@
         <x:v>136</x:v>
       </x:c>
       <x:c r="B66">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C66" t="s">
         <x:v>7</x:v>
@@ -3737,7 +3737,7 @@
         <x:v>138</x:v>
       </x:c>
       <x:c r="B67">
-        <x:v>2157.2099609375</x:v>
+        <x:v>5896.69</x:v>
       </x:c>
       <x:c r="C67" t="s">
         <x:v>7</x:v>
@@ -3751,7 +3751,7 @@
         <x:v>140</x:v>
       </x:c>
       <x:c r="B68">
-        <x:v>1983.15002441406</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C68" t="s">
         <x:v>7</x:v>
@@ -3765,7 +3765,7 @@
         <x:v>142</x:v>
       </x:c>
       <x:c r="B69">
-        <x:v>4528.14013671875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C69" t="s">
         <x:v>7</x:v>
@@ -3779,7 +3779,7 @@
         <x:v>144</x:v>
       </x:c>
       <x:c r="B70">
-        <x:v>6828.419921875</x:v>
+        <x:v>4638.24</x:v>
       </x:c>
       <x:c r="C70" t="s">
         <x:v>7</x:v>
@@ -3793,7 +3793,7 @@
         <x:v>146</x:v>
       </x:c>
       <x:c r="B71">
-        <x:v>2946.169921875</x:v>
+        <x:v>2479.5</x:v>
       </x:c>
       <x:c r="C71" t="s">
         <x:v>7</x:v>
@@ -3807,7 +3807,7 @@
         <x:v>148</x:v>
       </x:c>
       <x:c r="B72">
-        <x:v>2670.43994140625</x:v>
+        <x:v>2853.69</x:v>
       </x:c>
       <x:c r="C72" t="s">
         <x:v>7</x:v>
@@ -3821,7 +3821,7 @@
         <x:v>150</x:v>
       </x:c>
       <x:c r="B73">
-        <x:v>3453.7099609375</x:v>
+        <x:v>2456.9</x:v>
       </x:c>
       <x:c r="C73" t="s">
         <x:v>7</x:v>
@@ -3835,7 +3835,7 @@
         <x:v>152</x:v>
       </x:c>
       <x:c r="B74">
-        <x:v>4528.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C74" t="s">
         <x:v>7</x:v>
@@ -3849,7 +3849,7 @@
         <x:v>154</x:v>
       </x:c>
       <x:c r="B75">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C75" t="s">
         <x:v>7</x:v>
@@ -3863,7 +3863,7 @@
         <x:v>156</x:v>
       </x:c>
       <x:c r="B76">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C76" t="s">
         <x:v>7</x:v>
@@ -3877,7 +3877,7 @@
         <x:v>158</x:v>
       </x:c>
       <x:c r="B77">
-        <x:v>6498.72998046875</x:v>
+        <x:v>1337.45</x:v>
       </x:c>
       <x:c r="C77" t="s">
         <x:v>7</x:v>
@@ -3891,7 +3891,7 @@
         <x:v>160</x:v>
       </x:c>
       <x:c r="B78">
-        <x:v>3671.27001953125</x:v>
+        <x:v>5131.74</x:v>
       </x:c>
       <x:c r="C78" t="s">
         <x:v>7</x:v>
@@ -3905,7 +3905,7 @@
         <x:v>162</x:v>
       </x:c>
       <x:c r="B79">
-        <x:v>2216.7900390625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C79" t="s">
         <x:v>7</x:v>
@@ -3919,7 +3919,7 @@
         <x:v>164</x:v>
       </x:c>
       <x:c r="B80">
-        <x:v>7004.43017578125</x:v>
+        <x:v>2911.51</x:v>
       </x:c>
       <x:c r="C80" t="s">
         <x:v>7</x:v>
@@ -3933,7 +3933,7 @@
         <x:v>166</x:v>
       </x:c>
       <x:c r="B81">
-        <x:v>4528.169921875</x:v>
+        <x:v>5185.11</x:v>
       </x:c>
       <x:c r="C81" t="s">
         <x:v>7</x:v>
@@ -3947,7 +3947,7 @@
         <x:v>168</x:v>
       </x:c>
       <x:c r="B82">
-        <x:v>1343.27001953125</x:v>
+        <x:v>2258.77</x:v>
       </x:c>
       <x:c r="C82" t="s">
         <x:v>7</x:v>
@@ -3961,7 +3961,7 @@
         <x:v>170</x:v>
       </x:c>
       <x:c r="B83">
-        <x:v>892.809997558594</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C83" t="s">
         <x:v>7</x:v>
@@ -3975,7 +3975,7 @@
         <x:v>172</x:v>
       </x:c>
       <x:c r="B84">
-        <x:v>2946.169921875</x:v>
+        <x:v>173.76</x:v>
       </x:c>
       <x:c r="C84" t="s">
         <x:v>7</x:v>
@@ -3989,7 +3989,7 @@
         <x:v>174</x:v>
       </x:c>
       <x:c r="B85">
-        <x:v>2946.169921875</x:v>
+        <x:v>3807.63</x:v>
       </x:c>
       <x:c r="C85" t="s">
         <x:v>7</x:v>
@@ -4003,7 +4003,7 @@
         <x:v>176</x:v>
       </x:c>
       <x:c r="B86">
-        <x:v>4528.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C86" t="s">
         <x:v>7</x:v>
@@ -4017,7 +4017,7 @@
         <x:v>178</x:v>
       </x:c>
       <x:c r="B87">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C87" t="s">
         <x:v>7</x:v>
@@ -4031,7 +4031,7 @@
         <x:v>180</x:v>
       </x:c>
       <x:c r="B88">
-        <x:v>1541.68994140625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C88" t="s">
         <x:v>7</x:v>
@@ -4045,7 +4045,7 @@
         <x:v>182</x:v>
       </x:c>
       <x:c r="B89">
-        <x:v>900.760009765625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C89" t="s">
         <x:v>7</x:v>
@@ -4059,7 +4059,7 @@
         <x:v>184</x:v>
       </x:c>
       <x:c r="B90">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C90" t="s">
         <x:v>7</x:v>
@@ -4073,7 +4073,7 @@
         <x:v>186</x:v>
       </x:c>
       <x:c r="B91">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C91" t="s">
         <x:v>7</x:v>
@@ -4087,7 +4087,7 @@
         <x:v>188</x:v>
       </x:c>
       <x:c r="B92">
-        <x:v>3246.169921875</x:v>
+        <x:v>6967.49</x:v>
       </x:c>
       <x:c r="C92" t="s">
         <x:v>7</x:v>
@@ -4101,7 +4101,7 @@
         <x:v>190</x:v>
       </x:c>
       <x:c r="B93">
-        <x:v>6468.7900390625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C93" t="s">
         <x:v>7</x:v>
@@ -4115,7 +4115,7 @@
         <x:v>192</x:v>
       </x:c>
       <x:c r="B94">
-        <x:v>2111.32006835938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C94" t="s">
         <x:v>7</x:v>
@@ -4129,7 +4129,7 @@
         <x:v>194</x:v>
       </x:c>
       <x:c r="B95">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C95" t="s">
         <x:v>7</x:v>
@@ -4143,7 +4143,7 @@
         <x:v>196</x:v>
       </x:c>
       <x:c r="B96">
-        <x:v>2900.93994140625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C96" t="s">
         <x:v>7</x:v>
@@ -4157,7 +4157,7 @@
         <x:v>198</x:v>
       </x:c>
       <x:c r="B97">
-        <x:v>804.309997558594</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C97" t="s">
         <x:v>7</x:v>
@@ -4171,7 +4171,7 @@
         <x:v>200</x:v>
       </x:c>
       <x:c r="B98">
-        <x:v>1438.2099609375</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C98" t="s">
         <x:v>7</x:v>
@@ -4185,7 +4185,7 @@
         <x:v>202</x:v>
       </x:c>
       <x:c r="B99">
-        <x:v>441.809997558594</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C99" t="s">
         <x:v>7</x:v>
@@ -4199,7 +4199,7 @@
         <x:v>204</x:v>
       </x:c>
       <x:c r="B100">
-        <x:v>2336.88989257813</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C100" t="s">
         <x:v>7</x:v>
@@ -4213,7 +4213,7 @@
         <x:v>206</x:v>
       </x:c>
       <x:c r="B101">
-        <x:v>2684.11010742188</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C101" t="s">
         <x:v>7</x:v>
@@ -4227,7 +4227,7 @@
         <x:v>208</x:v>
       </x:c>
       <x:c r="B102">
-        <x:v>4060.78002929688</x:v>
+        <x:v>1364.35</x:v>
       </x:c>
       <x:c r="C102" t="s">
         <x:v>7</x:v>
@@ -4241,7 +4241,7 @@
         <x:v>210</x:v>
       </x:c>
       <x:c r="B103">
-        <x:v>3453.7099609375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C103" t="s">
         <x:v>7</x:v>
@@ -4255,7 +4255,7 @@
         <x:v>212</x:v>
       </x:c>
       <x:c r="B104">
-        <x:v>2740.81005859375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C104" t="s">
         <x:v>7</x:v>
@@ -4269,7 +4269,7 @@
         <x:v>214</x:v>
       </x:c>
       <x:c r="B105">
-        <x:v>6498.72998046875</x:v>
+        <x:v>14428.11</x:v>
       </x:c>
       <x:c r="C105" t="s">
         <x:v>7</x:v>
@@ -4283,7 +4283,7 @@
         <x:v>216</x:v>
       </x:c>
       <x:c r="B106">
-        <x:v>2946.169921875</x:v>
+        <x:v>2839.7</x:v>
       </x:c>
       <x:c r="C106" t="s">
         <x:v>7</x:v>
@@ -4297,7 +4297,7 @@
         <x:v>218</x:v>
       </x:c>
       <x:c r="B107">
-        <x:v>1738.7900390625</x:v>
+        <x:v>5548.94</x:v>
       </x:c>
       <x:c r="C107" t="s">
         <x:v>7</x:v>
@@ -4311,7 +4311,7 @@
         <x:v>220</x:v>
       </x:c>
       <x:c r="B108">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.34</x:v>
       </x:c>
       <x:c r="C108" t="s">
         <x:v>7</x:v>
@@ -4325,7 +4325,7 @@
         <x:v>222</x:v>
       </x:c>
       <x:c r="B109">
-        <x:v>2427.60009765625</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C109" t="s">
         <x:v>7</x:v>
@@ -4339,7 +4339,7 @@
         <x:v>224</x:v>
       </x:c>
       <x:c r="B110">
-        <x:v>5540.60986328125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C110" t="s">
         <x:v>7</x:v>
@@ -4353,7 +4353,7 @@
         <x:v>226</x:v>
       </x:c>
       <x:c r="B111">
-        <x:v>2384.10009765625</x:v>
+        <x:v>3084.73</x:v>
       </x:c>
       <x:c r="C111" t="s">
         <x:v>7</x:v>
@@ -4367,7 +4367,7 @@
         <x:v>228</x:v>
       </x:c>
       <x:c r="B112">
-        <x:v>2946.169921875</x:v>
+        <x:v>5001.45</x:v>
       </x:c>
       <x:c r="C112" t="s">
         <x:v>7</x:v>
@@ -4381,7 +4381,7 @@
         <x:v>230</x:v>
       </x:c>
       <x:c r="B113">
-        <x:v>4948.02978515625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C113" t="s">
         <x:v>7</x:v>
@@ -4395,7 +4395,7 @@
         <x:v>232</x:v>
       </x:c>
       <x:c r="B114">
-        <x:v>525.140014648438</x:v>
+        <x:v>3346.17</x:v>
       </x:c>
       <x:c r="C114" t="s">
         <x:v>7</x:v>
@@ -4409,7 +4409,7 @@
         <x:v>234</x:v>
       </x:c>
       <x:c r="B115">
-        <x:v>852.5</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C115" t="s">
         <x:v>7</x:v>
@@ -4423,7 +4423,7 @@
         <x:v>236</x:v>
       </x:c>
       <x:c r="B116">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C116" t="s">
         <x:v>7</x:v>
@@ -4437,7 +4437,7 @@
         <x:v>238</x:v>
       </x:c>
       <x:c r="B117">
-        <x:v>3671.27001953125</x:v>
+        <x:v>3332.81</x:v>
       </x:c>
       <x:c r="C117" t="s">
         <x:v>7</x:v>
@@ -4451,7 +4451,7 @@
         <x:v>240</x:v>
       </x:c>
       <x:c r="B118">
-        <x:v>6498.72998046875</x:v>
+        <x:v>1729.3</x:v>
       </x:c>
       <x:c r="C118" t="s">
         <x:v>7</x:v>
@@ -4465,7 +4465,7 @@
         <x:v>242</x:v>
       </x:c>
       <x:c r="B119">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C119" t="s">
         <x:v>7</x:v>
@@ -4479,7 +4479,7 @@
         <x:v>244</x:v>
       </x:c>
       <x:c r="B120">
-        <x:v>2946.169921875</x:v>
+        <x:v>516.48</x:v>
       </x:c>
       <x:c r="C120" t="s">
         <x:v>7</x:v>
@@ -4493,7 +4493,7 @@
         <x:v>246</x:v>
       </x:c>
       <x:c r="B121">
-        <x:v>1687.66003417969</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C121" t="s">
         <x:v>7</x:v>
@@ -4507,7 +4507,7 @@
         <x:v>248</x:v>
       </x:c>
       <x:c r="B122">
-        <x:v>5915.39990234375</x:v>
+        <x:v>4732.71</x:v>
       </x:c>
       <x:c r="C122" t="s">
         <x:v>7</x:v>
@@ -4521,7 +4521,7 @@
         <x:v>250</x:v>
       </x:c>
       <x:c r="B123">
-        <x:v>3204.60009765625</x:v>
+        <x:v>2362.84</x:v>
       </x:c>
       <x:c r="C123" t="s">
         <x:v>7</x:v>
@@ -4535,7 +4535,7 @@
         <x:v>252</x:v>
       </x:c>
       <x:c r="B124">
-        <x:v>2036.43005371094</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C124" t="s">
         <x:v>7</x:v>
@@ -4549,7 +4549,7 @@
         <x:v>254</x:v>
       </x:c>
       <x:c r="B125">
-        <x:v>3204.60009765625</x:v>
+        <x:v>3278.49</x:v>
       </x:c>
       <x:c r="C125" t="s">
         <x:v>7</x:v>
@@ -4563,7 +4563,7 @@
         <x:v>256</x:v>
       </x:c>
       <x:c r="B126">
-        <x:v>3005.06005859375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C126" t="s">
         <x:v>7</x:v>
@@ -4577,7 +4577,7 @@
         <x:v>258</x:v>
       </x:c>
       <x:c r="B127">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C127" t="s">
         <x:v>7</x:v>
@@ -4591,7 +4591,7 @@
         <x:v>260</x:v>
       </x:c>
       <x:c r="B128">
-        <x:v>1792.93005371094</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C128" t="s">
         <x:v>7</x:v>
@@ -4605,7 +4605,7 @@
         <x:v>262</x:v>
       </x:c>
       <x:c r="B129">
-        <x:v>3453.7099609375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C129" t="s">
         <x:v>7</x:v>
@@ -4619,7 +4619,7 @@
         <x:v>264</x:v>
       </x:c>
       <x:c r="B130">
-        <x:v>3608.32006835938</x:v>
+        <x:v>3346.17</x:v>
       </x:c>
       <x:c r="C130" t="s">
         <x:v>7</x:v>
@@ -4633,7 +4633,7 @@
         <x:v>266</x:v>
       </x:c>
       <x:c r="B131">
-        <x:v>1454.56005859375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C131" t="s">
         <x:v>7</x:v>
@@ -4647,7 +4647,7 @@
         <x:v>268</x:v>
       </x:c>
       <x:c r="B132">
-        <x:v>6210.41015625</x:v>
+        <x:v>3347.78</x:v>
       </x:c>
       <x:c r="C132" t="s">
         <x:v>7</x:v>
@@ -4661,7 +4661,7 @@
         <x:v>270</x:v>
       </x:c>
       <x:c r="B133">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C133" t="s">
         <x:v>7</x:v>
@@ -4675,7 +4675,7 @@
         <x:v>272</x:v>
       </x:c>
       <x:c r="B134">
-        <x:v>633.510009765625</x:v>
+        <x:v>3742.55</x:v>
       </x:c>
       <x:c r="C134" t="s">
         <x:v>7</x:v>
@@ -4689,7 +4689,7 @@
         <x:v>274</x:v>
       </x:c>
       <x:c r="B135">
-        <x:v>1723.13000488281</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C135" t="s">
         <x:v>7</x:v>
@@ -4703,7 +4703,7 @@
         <x:v>276</x:v>
       </x:c>
       <x:c r="B136">
-        <x:v>2163.17993164063</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C136" t="s">
         <x:v>7</x:v>
@@ -4717,7 +4717,7 @@
         <x:v>278</x:v>
       </x:c>
       <x:c r="B137">
-        <x:v>2916.53002929688</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C137" t="s">
         <x:v>7</x:v>
@@ -4731,7 +4731,7 @@
         <x:v>280</x:v>
       </x:c>
       <x:c r="B138">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C138" t="s">
         <x:v>7</x:v>
@@ -4745,7 +4745,7 @@
         <x:v>282</x:v>
       </x:c>
       <x:c r="B139">
-        <x:v>1928.2900390625</x:v>
+        <x:v>1307.96</x:v>
       </x:c>
       <x:c r="C139" t="s">
         <x:v>7</x:v>
@@ -4759,7 +4759,7 @@
         <x:v>284</x:v>
       </x:c>
       <x:c r="B140">
-        <x:v>3539.94995117188</x:v>
+        <x:v>3438.59</x:v>
       </x:c>
       <x:c r="C140" t="s">
         <x:v>7</x:v>
@@ -4773,7 +4773,7 @@
         <x:v>286</x:v>
       </x:c>
       <x:c r="B141">
-        <x:v>2946.169921875</x:v>
+        <x:v>2079.32</x:v>
       </x:c>
       <x:c r="C141" t="s">
         <x:v>7</x:v>
@@ -4787,7 +4787,7 @@
         <x:v>288</x:v>
       </x:c>
       <x:c r="B142">
-        <x:v>2875.77001953125</x:v>
+        <x:v>5701.94</x:v>
       </x:c>
       <x:c r="C142" t="s">
         <x:v>7</x:v>
@@ -4801,7 +4801,7 @@
         <x:v>290</x:v>
       </x:c>
       <x:c r="B143">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C143" t="s">
         <x:v>7</x:v>
@@ -4815,7 +4815,7 @@
         <x:v>292</x:v>
       </x:c>
       <x:c r="B144">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C144" t="s">
         <x:v>7</x:v>
@@ -4829,7 +4829,7 @@
         <x:v>294</x:v>
       </x:c>
       <x:c r="B145">
-        <x:v>2946.169921875</x:v>
+        <x:v>2086.57</x:v>
       </x:c>
       <x:c r="C145" t="s">
         <x:v>7</x:v>
@@ -4843,7 +4843,7 @@
         <x:v>296</x:v>
       </x:c>
       <x:c r="B146">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C146" t="s">
         <x:v>7</x:v>
@@ -4857,7 +4857,7 @@
         <x:v>298</x:v>
       </x:c>
       <x:c r="B147">
-        <x:v>3438.59008789063</x:v>
+        <x:v>1468.56</x:v>
       </x:c>
       <x:c r="C147" t="s">
         <x:v>7</x:v>
@@ -4871,7 +4871,7 @@
         <x:v>300</x:v>
       </x:c>
       <x:c r="B148">
-        <x:v>2079.32006835938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C148" t="s">
         <x:v>7</x:v>
@@ -4885,7 +4885,7 @@
         <x:v>302</x:v>
       </x:c>
       <x:c r="B149">
-        <x:v>2037.51000976563</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C149" t="s">
         <x:v>7</x:v>
@@ -4899,7 +4899,7 @@
         <x:v>304</x:v>
       </x:c>
       <x:c r="B150">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C150" t="s">
         <x:v>7</x:v>
@@ -4913,7 +4913,7 @@
         <x:v>306</x:v>
       </x:c>
       <x:c r="B151">
-        <x:v>2271.36010742188</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C151" t="s">
         <x:v>7</x:v>
@@ -4927,7 +4927,7 @@
         <x:v>308</x:v>
       </x:c>
       <x:c r="B152">
-        <x:v>2946.169921875</x:v>
+        <x:v>3685.14</x:v>
       </x:c>
       <x:c r="C152" t="s">
         <x:v>7</x:v>
@@ -4941,7 +4941,7 @@
         <x:v>310</x:v>
       </x:c>
       <x:c r="B153">
-        <x:v>2946.169921875</x:v>
+        <x:v>1254.55</x:v>
       </x:c>
       <x:c r="C153" t="s">
         <x:v>7</x:v>
@@ -4955,7 +4955,7 @@
         <x:v>312</x:v>
       </x:c>
       <x:c r="B154">
-        <x:v>1692.18005371094</x:v>
+        <x:v>3872.81</x:v>
       </x:c>
       <x:c r="C154" t="s">
         <x:v>7</x:v>
@@ -4969,7 +4969,7 @@
         <x:v>314</x:v>
       </x:c>
       <x:c r="B155">
-        <x:v>1883.43005371094</x:v>
+        <x:v>2869.59</x:v>
       </x:c>
       <x:c r="C155" t="s">
         <x:v>7</x:v>
@@ -4983,7 +4983,7 @@
         <x:v>316</x:v>
       </x:c>
       <x:c r="B156">
-        <x:v>3067.72998046875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C156" t="s">
         <x:v>7</x:v>
@@ -4997,7 +4997,7 @@
         <x:v>318</x:v>
       </x:c>
       <x:c r="B157">
-        <x:v>5733</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C157" t="s">
         <x:v>7</x:v>
@@ -5011,7 +5011,7 @@
         <x:v>320</x:v>
       </x:c>
       <x:c r="B158">
-        <x:v>3500.5</x:v>
+        <x:v>3346.17</x:v>
       </x:c>
       <x:c r="C158" t="s">
         <x:v>7</x:v>
@@ -5025,7 +5025,7 @@
         <x:v>322</x:v>
       </x:c>
       <x:c r="B159">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C159" t="s">
         <x:v>7</x:v>
@@ -5039,7 +5039,7 @@
         <x:v>324</x:v>
       </x:c>
       <x:c r="B160">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C160" t="s">
         <x:v>7</x:v>
@@ -5053,7 +5053,7 @@
         <x:v>326</x:v>
       </x:c>
       <x:c r="B161">
-        <x:v>4528.169921875</x:v>
+        <x:v>2659.03</x:v>
       </x:c>
       <x:c r="C161" t="s">
         <x:v>7</x:v>
@@ -5067,7 +5067,7 @@
         <x:v>328</x:v>
       </x:c>
       <x:c r="B162">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C162" t="s">
         <x:v>7</x:v>
@@ -5081,7 +5081,7 @@
         <x:v>330</x:v>
       </x:c>
       <x:c r="B163">
-        <x:v>2946.169921875</x:v>
+        <x:v>1723.21</x:v>
       </x:c>
       <x:c r="C163" t="s">
         <x:v>7</x:v>
@@ -5095,7 +5095,7 @@
         <x:v>332</x:v>
       </x:c>
       <x:c r="B164">
-        <x:v>1813.2900390625</x:v>
+        <x:v>3608.32</x:v>
       </x:c>
       <x:c r="C164" t="s">
         <x:v>7</x:v>
@@ -5109,7 +5109,7 @@
         <x:v>334</x:v>
       </x:c>
       <x:c r="B165">
-        <x:v>2946.169921875</x:v>
+        <x:v>1454.56</x:v>
       </x:c>
       <x:c r="C165" t="s">
         <x:v>7</x:v>
@@ -5123,7 +5123,7 @@
         <x:v>336</x:v>
       </x:c>
       <x:c r="B166">
-        <x:v>3671.27001953125</x:v>
+        <x:v>6210.41</x:v>
       </x:c>
       <x:c r="C166" t="s">
         <x:v>7</x:v>
@@ -5137,7 +5137,7 @@
         <x:v>338</x:v>
       </x:c>
       <x:c r="B167">
-        <x:v>4528.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C167" t="s">
         <x:v>7</x:v>
@@ -5151,7 +5151,7 @@
         <x:v>340</x:v>
       </x:c>
       <x:c r="B168">
-        <x:v>3346.169921875</x:v>
+        <x:v>633.51</x:v>
       </x:c>
       <x:c r="C168" t="s">
         <x:v>7</x:v>
@@ -5165,7 +5165,7 @@
         <x:v>342</x:v>
       </x:c>
       <x:c r="B169">
-        <x:v>2946.169921875</x:v>
+        <x:v>1723.13</x:v>
       </x:c>
       <x:c r="C169" t="s">
         <x:v>7</x:v>
@@ -5179,7 +5179,7 @@
         <x:v>344</x:v>
       </x:c>
       <x:c r="B170">
-        <x:v>1443.2099609375</x:v>
+        <x:v>2163.18</x:v>
       </x:c>
       <x:c r="C170" t="s">
         <x:v>7</x:v>
@@ -5193,7 +5193,7 @@
         <x:v>346</x:v>
       </x:c>
       <x:c r="B171">
-        <x:v>2946.169921875</x:v>
+        <x:v>2916.53</x:v>
       </x:c>
       <x:c r="C171" t="s">
         <x:v>7</x:v>
@@ -5207,7 +5207,7 @@
         <x:v>348</x:v>
       </x:c>
       <x:c r="B172">
-        <x:v>1283.5</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C172" t="s">
         <x:v>7</x:v>
@@ -5221,7 +5221,7 @@
         <x:v>350</x:v>
       </x:c>
       <x:c r="B173">
-        <x:v>1659.44995117188</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C173" t="s">
         <x:v>7</x:v>
@@ -5235,7 +5235,7 @@
         <x:v>352</x:v>
       </x:c>
       <x:c r="B174">
-        <x:v>5316.93994140625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C174" t="s">
         <x:v>7</x:v>
@@ -5249,7 +5249,7 @@
         <x:v>354</x:v>
       </x:c>
       <x:c r="B175">
-        <x:v>2933.02001953125</x:v>
+        <x:v>1687.66</x:v>
       </x:c>
       <x:c r="C175" t="s">
         <x:v>7</x:v>
@@ -5263,7 +5263,7 @@
         <x:v>356</x:v>
       </x:c>
       <x:c r="B176">
-        <x:v>2946.169921875</x:v>
+        <x:v>5915.4</x:v>
       </x:c>
       <x:c r="C176" t="s">
         <x:v>7</x:v>
@@ -5277,7 +5277,7 @@
         <x:v>358</x:v>
       </x:c>
       <x:c r="B177">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3204.6</x:v>
       </x:c>
       <x:c r="C177" t="s">
         <x:v>7</x:v>
@@ -5291,7 +5291,7 @@
         <x:v>360</x:v>
       </x:c>
       <x:c r="B178">
-        <x:v>3587.77001953125</x:v>
+        <x:v>2036.43</x:v>
       </x:c>
       <x:c r="C178" t="s">
         <x:v>7</x:v>
@@ -5305,7 +5305,7 @@
         <x:v>362</x:v>
       </x:c>
       <x:c r="B179">
-        <x:v>2946.169921875</x:v>
+        <x:v>3204.6</x:v>
       </x:c>
       <x:c r="C179" t="s">
         <x:v>7</x:v>
@@ -5319,7 +5319,7 @@
         <x:v>364</x:v>
       </x:c>
       <x:c r="B180">
-        <x:v>2946.169921875</x:v>
+        <x:v>3005.06</x:v>
       </x:c>
       <x:c r="C180" t="s">
         <x:v>7</x:v>
@@ -5333,7 +5333,7 @@
         <x:v>366</x:v>
       </x:c>
       <x:c r="B181">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C181" t="s">
         <x:v>7</x:v>
@@ -5347,7 +5347,7 @@
         <x:v>368</x:v>
       </x:c>
       <x:c r="B182">
-        <x:v>2196.5</x:v>
+        <x:v>1792.93</x:v>
       </x:c>
       <x:c r="C182" t="s">
         <x:v>7</x:v>
@@ -5361,7 +5361,7 @@
         <x:v>370</x:v>
       </x:c>
       <x:c r="B183">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3453.71</x:v>
       </x:c>
       <x:c r="C183" t="s">
         <x:v>7</x:v>
@@ -5375,7 +5375,7 @@
         <x:v>372</x:v>
       </x:c>
       <x:c r="B184">
-        <x:v>2146.3701171875</x:v>
+        <x:v>1928.29</x:v>
       </x:c>
       <x:c r="C184" t="s">
         <x:v>7</x:v>
@@ -5389,7 +5389,7 @@
         <x:v>374</x:v>
       </x:c>
       <x:c r="B185">
-        <x:v>2946.169921875</x:v>
+        <x:v>3539.95</x:v>
       </x:c>
       <x:c r="C185" t="s">
         <x:v>7</x:v>
@@ -5403,7 +5403,7 @@
         <x:v>376</x:v>
       </x:c>
       <x:c r="B186">
-        <x:v>5752.91015625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C186" t="s">
         <x:v>7</x:v>
@@ -5417,7 +5417,7 @@
         <x:v>378</x:v>
       </x:c>
       <x:c r="B187">
-        <x:v>2436.14990234375</x:v>
+        <x:v>2875.77</x:v>
       </x:c>
       <x:c r="C187" t="s">
         <x:v>7</x:v>
@@ -5431,7 +5431,7 @@
         <x:v>380</x:v>
       </x:c>
       <x:c r="B188">
-        <x:v>4528.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C188" t="s">
         <x:v>7</x:v>
@@ -5445,7 +5445,7 @@
         <x:v>382</x:v>
       </x:c>
       <x:c r="B189">
-        <x:v>4761.64013671875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C189" t="s">
         <x:v>7</x:v>
@@ -5459,7 +5459,7 @@
         <x:v>384</x:v>
       </x:c>
       <x:c r="B190">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C190" t="s">
         <x:v>7</x:v>
@@ -5473,7 +5473,7 @@
         <x:v>386</x:v>
       </x:c>
       <x:c r="B191">
-        <x:v>2946.169921875</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C191" t="s">
         <x:v>7</x:v>
@@ -5487,7 +5487,7 @@
         <x:v>388</x:v>
       </x:c>
       <x:c r="B192">
-        <x:v>2313</x:v>
+        <x:v>2037.51</x:v>
       </x:c>
       <x:c r="C192" t="s">
         <x:v>7</x:v>
@@ -5501,7 +5501,7 @@
         <x:v>390</x:v>
       </x:c>
       <x:c r="B193">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C193" t="s">
         <x:v>7</x:v>
@@ -5515,7 +5515,7 @@
         <x:v>392</x:v>
       </x:c>
       <x:c r="B194">
-        <x:v>2946.169921875</x:v>
+        <x:v>2271.36</x:v>
       </x:c>
       <x:c r="C194" t="s">
         <x:v>7</x:v>
@@ -5529,7 +5529,7 @@
         <x:v>394</x:v>
       </x:c>
       <x:c r="B195">
-        <x:v>2839.69995117188</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C195" t="s">
         <x:v>7</x:v>
@@ -5543,7 +5543,7 @@
         <x:v>396</x:v>
       </x:c>
       <x:c r="B196">
-        <x:v>5548.93994140625</x:v>
+        <x:v>1823.52</x:v>
       </x:c>
       <x:c r="C196" t="s">
         <x:v>7</x:v>
@@ -5557,7 +5557,7 @@
         <x:v>398</x:v>
       </x:c>
       <x:c r="B197">
-        <x:v>3671.34008789063</x:v>
+        <x:v>8404.31</x:v>
       </x:c>
       <x:c r="C197" t="s">
         <x:v>7</x:v>
@@ -5571,7 +5571,7 @@
         <x:v>400</x:v>
       </x:c>
       <x:c r="B198">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C198" t="s">
         <x:v>7</x:v>
@@ -5585,7 +5585,7 @@
         <x:v>402</x:v>
       </x:c>
       <x:c r="B199">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C199" t="s">
         <x:v>7</x:v>
@@ -5599,7 +5599,7 @@
         <x:v>404</x:v>
       </x:c>
       <x:c r="B200">
-        <x:v>3084.72998046875</x:v>
+        <x:v>1692.18</x:v>
       </x:c>
       <x:c r="C200" t="s">
         <x:v>7</x:v>
@@ -5613,7 +5613,7 @@
         <x:v>406</x:v>
       </x:c>
       <x:c r="B201">
-        <x:v>5001.4501953125</x:v>
+        <x:v>1883.43</x:v>
       </x:c>
       <x:c r="C201" t="s">
         <x:v>7</x:v>
@@ -5627,7 +5627,7 @@
         <x:v>408</x:v>
       </x:c>
       <x:c r="B202">
-        <x:v>2946.169921875</x:v>
+        <x:v>3067.73</x:v>
       </x:c>
       <x:c r="C202" t="s">
         <x:v>7</x:v>
@@ -5641,7 +5641,7 @@
         <x:v>410</x:v>
       </x:c>
       <x:c r="B203">
-        <x:v>5752.91015625</x:v>
+        <x:v>5733</x:v>
       </x:c>
       <x:c r="C203" t="s">
         <x:v>7</x:v>
@@ -5655,7 +5655,7 @@
         <x:v>412</x:v>
       </x:c>
       <x:c r="B204">
-        <x:v>3346.169921875</x:v>
+        <x:v>3500.5</x:v>
       </x:c>
       <x:c r="C204" t="s">
         <x:v>7</x:v>
@@ -5669,7 +5669,7 @@
         <x:v>414</x:v>
       </x:c>
       <x:c r="B205">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C205" t="s">
         <x:v>7</x:v>
@@ -5683,7 +5683,7 @@
         <x:v>416</x:v>
       </x:c>
       <x:c r="B206">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C206" t="s">
         <x:v>7</x:v>
@@ -5697,7 +5697,7 @@
         <x:v>418</x:v>
       </x:c>
       <x:c r="B207">
-        <x:v>1307.9599609375</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C207" t="s">
         <x:v>7</x:v>
@@ -5711,7 +5711,7 @@
         <x:v>420</x:v>
       </x:c>
       <x:c r="B208">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C208" t="s">
         <x:v>7</x:v>
@@ -5725,7 +5725,7 @@
         <x:v>422</x:v>
       </x:c>
       <x:c r="B209">
-        <x:v>3347.78002929688</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C209" t="s">
         <x:v>7</x:v>
@@ -5739,7 +5739,7 @@
         <x:v>424</x:v>
       </x:c>
       <x:c r="B210">
-        <x:v>6498.72998046875</x:v>
+        <x:v>1813.29</x:v>
       </x:c>
       <x:c r="C210" t="s">
         <x:v>7</x:v>
@@ -5753,7 +5753,7 @@
         <x:v>426</x:v>
       </x:c>
       <x:c r="B211">
-        <x:v>3742.55004882813</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C211" t="s">
         <x:v>7</x:v>
@@ -5767,7 +5767,7 @@
         <x:v>428</x:v>
       </x:c>
       <x:c r="B212">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C212" t="s">
         <x:v>7</x:v>
@@ -5781,7 +5781,7 @@
         <x:v>430</x:v>
       </x:c>
       <x:c r="B213">
-        <x:v>2946.169921875</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C213" t="s">
         <x:v>7</x:v>
@@ -5795,7 +5795,7 @@
         <x:v>432</x:v>
       </x:c>
       <x:c r="B214">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3346.17</x:v>
       </x:c>
       <x:c r="C214" t="s">
         <x:v>7</x:v>
@@ -5809,7 +5809,7 @@
         <x:v>434</x:v>
       </x:c>
       <x:c r="B215">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C215" t="s">
         <x:v>7</x:v>
@@ -5823,7 +5823,7 @@
         <x:v>436</x:v>
       </x:c>
       <x:c r="B216">
-        <x:v>3332.81005859375</x:v>
+        <x:v>1443.21</x:v>
       </x:c>
       <x:c r="C216" t="s">
         <x:v>7</x:v>
@@ -5837,7 +5837,7 @@
         <x:v>438</x:v>
       </x:c>
       <x:c r="B217">
-        <x:v>1729.30004882813</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C217" t="s">
         <x:v>7</x:v>
@@ -5851,7 +5851,7 @@
         <x:v>440</x:v>
       </x:c>
       <x:c r="B218">
-        <x:v>2946.169921875</x:v>
+        <x:v>1283.5</x:v>
       </x:c>
       <x:c r="C218" t="s">
         <x:v>7</x:v>
@@ -5865,7 +5865,7 @@
         <x:v>442</x:v>
       </x:c>
       <x:c r="B219">
-        <x:v>516.47998046875</x:v>
+        <x:v>1659.45</x:v>
       </x:c>
       <x:c r="C219" t="s">
         <x:v>7</x:v>
@@ -5879,7 +5879,7 @@
         <x:v>444</x:v>
       </x:c>
       <x:c r="B220">
-        <x:v>2946.169921875</x:v>
+        <x:v>5316.94</x:v>
       </x:c>
       <x:c r="C220" t="s">
         <x:v>7</x:v>
@@ -5893,7 +5893,7 @@
         <x:v>446</x:v>
       </x:c>
       <x:c r="B221">
-        <x:v>4732.7099609375</x:v>
+        <x:v>2933.02</x:v>
       </x:c>
       <x:c r="C221" t="s">
         <x:v>7</x:v>
@@ -5907,7 +5907,7 @@
         <x:v>448</x:v>
       </x:c>
       <x:c r="B222">
-        <x:v>2362.84008789063</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C222" t="s">
         <x:v>7</x:v>
@@ -5921,7 +5921,7 @@
         <x:v>450</x:v>
       </x:c>
       <x:c r="B223">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C223" t="s">
         <x:v>7</x:v>
@@ -5935,7 +5935,7 @@
         <x:v>452</x:v>
       </x:c>
       <x:c r="B224">
-        <x:v>3278.48999023438</x:v>
+        <x:v>3587.77</x:v>
       </x:c>
       <x:c r="C224" t="s">
         <x:v>7</x:v>
@@ -5949,7 +5949,7 @@
         <x:v>454</x:v>
       </x:c>
       <x:c r="B225">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C225" t="s">
         <x:v>7</x:v>
@@ -5963,7 +5963,7 @@
         <x:v>456</x:v>
       </x:c>
       <x:c r="B226">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C226" t="s">
         <x:v>7</x:v>
@@ -5977,7 +5977,7 @@
         <x:v>458</x:v>
       </x:c>
       <x:c r="B227">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C227" t="s">
         <x:v>7</x:v>
@@ -5991,7 +5991,7 @@
         <x:v>460</x:v>
       </x:c>
       <x:c r="B228">
-        <x:v>2946.169921875</x:v>
+        <x:v>2196.5</x:v>
       </x:c>
       <x:c r="C228" t="s">
         <x:v>7</x:v>
@@ -6005,7 +6005,7 @@
         <x:v>462</x:v>
       </x:c>
       <x:c r="B229">
-        <x:v>3346.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C229" t="s">
         <x:v>7</x:v>
@@ -6019,7 +6019,7 @@
         <x:v>464</x:v>
       </x:c>
       <x:c r="B230">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2146.37</x:v>
       </x:c>
       <x:c r="C230" t="s">
         <x:v>7</x:v>
@@ -6033,7 +6033,7 @@
         <x:v>466</x:v>
       </x:c>
       <x:c r="B231">
-        <x:v>2086.57006835938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C231" t="s">
         <x:v>7</x:v>
@@ -6047,7 +6047,7 @@
         <x:v>468</x:v>
       </x:c>
       <x:c r="B232">
-        <x:v>2946.169921875</x:v>
+        <x:v>5752.91</x:v>
       </x:c>
       <x:c r="C232" t="s">
         <x:v>7</x:v>
@@ -6061,7 +6061,7 @@
         <x:v>470</x:v>
       </x:c>
       <x:c r="B233">
-        <x:v>1468.56005859375</x:v>
+        <x:v>2436.15</x:v>
       </x:c>
       <x:c r="C233" t="s">
         <x:v>7</x:v>
@@ -6075,7 +6075,7 @@
         <x:v>472</x:v>
       </x:c>
       <x:c r="B234">
-        <x:v>2946.169921875</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C234" t="s">
         <x:v>7</x:v>
@@ -6089,7 +6089,7 @@
         <x:v>474</x:v>
       </x:c>
       <x:c r="B235">
-        <x:v>6498.72998046875</x:v>
+        <x:v>4761.64</x:v>
       </x:c>
       <x:c r="C235" t="s">
         <x:v>7</x:v>
@@ -6103,7 +6103,7 @@
         <x:v>476</x:v>
       </x:c>
       <x:c r="B236">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C236" t="s">
         <x:v>7</x:v>
@@ -6117,7 +6117,7 @@
         <x:v>478</x:v>
       </x:c>
       <x:c r="B237">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C237" t="s">
         <x:v>7</x:v>
@@ -6131,7 +6131,7 @@
         <x:v>480</x:v>
       </x:c>
       <x:c r="B238">
-        <x:v>3685.13989257813</x:v>
+        <x:v>2313</x:v>
       </x:c>
       <x:c r="C238" t="s">
         <x:v>7</x:v>
@@ -6145,7 +6145,7 @@
         <x:v>482</x:v>
       </x:c>
       <x:c r="B239">
-        <x:v>1254.55004882813</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C239" t="s">
         <x:v>7</x:v>
@@ -6159,7 +6159,7 @@
         <x:v>484</x:v>
       </x:c>
       <x:c r="B240">
-        <x:v>3872.81005859375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C240" t="s">
         <x:v>7</x:v>
@@ -6173,7 +6173,7 @@
         <x:v>486</x:v>
       </x:c>
       <x:c r="B241">
-        <x:v>2869.59008789063</x:v>
+        <x:v>2235.52</x:v>
       </x:c>
       <x:c r="C241" t="s">
         <x:v>7</x:v>
@@ -6187,7 +6187,7 @@
         <x:v>488</x:v>
       </x:c>
       <x:c r="B242">
-        <x:v>3671.27001953125</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C242" t="s">
         <x:v>7</x:v>
@@ -6201,7 +6201,7 @@
         <x:v>490</x:v>
       </x:c>
       <x:c r="B243">
-        <x:v>2946.169921875</x:v>
+        <x:v>2573.05</x:v>
       </x:c>
       <x:c r="C243" t="s">
         <x:v>7</x:v>
@@ -6215,7 +6215,7 @@
         <x:v>492</x:v>
       </x:c>
       <x:c r="B244">
-        <x:v>3346.169921875</x:v>
+        <x:v>4927.9</x:v>
       </x:c>
       <x:c r="C244" t="s">
         <x:v>7</x:v>
@@ -6229,7 +6229,7 @@
         <x:v>494</x:v>
       </x:c>
       <x:c r="B245">
-        <x:v>2946.169921875</x:v>
+        <x:v>2942.55</x:v>
       </x:c>
       <x:c r="C245" t="s">
         <x:v>7</x:v>
@@ -6243,7 +6243,7 @@
         <x:v>496</x:v>
       </x:c>
       <x:c r="B246">
-        <x:v>2946.169921875</x:v>
+        <x:v>1512.57</x:v>
       </x:c>
       <x:c r="C246" t="s">
         <x:v>7</x:v>
@@ -6257,7 +6257,7 @@
         <x:v>498</x:v>
       </x:c>
       <x:c r="B247">
-        <x:v>2659.03002929688</x:v>
+        <x:v>4149.2</x:v>
       </x:c>
       <x:c r="C247" t="s">
         <x:v>7</x:v>
@@ -6271,7 +6271,7 @@
         <x:v>500</x:v>
       </x:c>
       <x:c r="B248">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C248" t="s">
         <x:v>7</x:v>
@@ -6285,7 +6285,7 @@
         <x:v>502</x:v>
       </x:c>
       <x:c r="B249">
-        <x:v>1723.2099609375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C249" t="s">
         <x:v>7</x:v>
@@ -6299,7 +6299,7 @@
         <x:v>504</x:v>
       </x:c>
       <x:c r="B250">
-        <x:v>2946.169921875</x:v>
+        <x:v>2112.19</x:v>
       </x:c>
       <x:c r="C250" t="s">
         <x:v>7</x:v>
@@ -6313,7 +6313,7 @@
         <x:v>506</x:v>
       </x:c>
       <x:c r="B251">
-        <x:v>2258.40991210938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C251" t="s">
         <x:v>7</x:v>
@@ -6327,7 +6327,7 @@
         <x:v>508</x:v>
       </x:c>
       <x:c r="B252">
-        <x:v>2176.53002929688</x:v>
+        <x:v>4583.51</x:v>
       </x:c>
       <x:c r="C252" t="s">
         <x:v>7</x:v>
@@ -6341,7 +6341,7 @@
         <x:v>510</x:v>
       </x:c>
       <x:c r="B253">
-        <x:v>2946.169921875</x:v>
+        <x:v>1974.78</x:v>
       </x:c>
       <x:c r="C253" t="s">
         <x:v>7</x:v>
@@ -6355,7 +6355,7 @@
         <x:v>512</x:v>
       </x:c>
       <x:c r="B254">
-        <x:v>2946.169921875</x:v>
+        <x:v>4071.33</x:v>
       </x:c>
       <x:c r="C254" t="s">
         <x:v>7</x:v>
@@ -6369,7 +6369,7 @@
         <x:v>514</x:v>
       </x:c>
       <x:c r="B255">
-        <x:v>3246.169921875</x:v>
+        <x:v>1526.25</x:v>
       </x:c>
       <x:c r="C255" t="s">
         <x:v>7</x:v>
@@ -6383,7 +6383,7 @@
         <x:v>516</x:v>
       </x:c>
       <x:c r="B256">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C256" t="s">
         <x:v>7</x:v>
@@ -6397,7 +6397,7 @@
         <x:v>518</x:v>
       </x:c>
       <x:c r="B257">
-        <x:v>5156.8798828125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C257" t="s">
         <x:v>7</x:v>
@@ -6411,7 +6411,7 @@
         <x:v>520</x:v>
       </x:c>
       <x:c r="B258">
-        <x:v>5694.83984375</x:v>
+        <x:v>2157.21</x:v>
       </x:c>
       <x:c r="C258" t="s">
         <x:v>7</x:v>
@@ -6425,7 +6425,7 @@
         <x:v>522</x:v>
       </x:c>
       <x:c r="B259">
-        <x:v>2946.169921875</x:v>
+        <x:v>1983.15</x:v>
       </x:c>
       <x:c r="C259" t="s">
         <x:v>7</x:v>
@@ -6439,7 +6439,7 @@
         <x:v>524</x:v>
       </x:c>
       <x:c r="B260">
-        <x:v>2946.169921875</x:v>
+        <x:v>4528.14</x:v>
       </x:c>
       <x:c r="C260" t="s">
         <x:v>7</x:v>
@@ -6453,7 +6453,7 @@
         <x:v>526</x:v>
       </x:c>
       <x:c r="B261">
-        <x:v>2946.169921875</x:v>
+        <x:v>6828.42</x:v>
       </x:c>
       <x:c r="C261" t="s">
         <x:v>7</x:v>
@@ -6467,7 +6467,7 @@
         <x:v>528</x:v>
       </x:c>
       <x:c r="B262">
-        <x:v>5102.89013671875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C262" t="s">
         <x:v>7</x:v>
@@ -6481,7 +6481,7 @@
         <x:v>530</x:v>
       </x:c>
       <x:c r="B263">
-        <x:v>4043.72998046875</x:v>
+        <x:v>2670.44</x:v>
       </x:c>
       <x:c r="C263" t="s">
         <x:v>7</x:v>
@@ -6495,7 +6495,7 @@
         <x:v>532</x:v>
       </x:c>
       <x:c r="B264">
-        <x:v>1823.77001953125</x:v>
+        <x:v>3453.71</x:v>
       </x:c>
       <x:c r="C264" t="s">
         <x:v>7</x:v>
@@ -6509,7 +6509,7 @@
         <x:v>534</x:v>
       </x:c>
       <x:c r="B265">
-        <x:v>3671.27001953125</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C265" t="s">
         <x:v>7</x:v>
@@ -6523,7 +6523,7 @@
         <x:v>536</x:v>
       </x:c>
       <x:c r="B266">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C266" t="s">
         <x:v>7</x:v>
@@ -6537,7 +6537,7 @@
         <x:v>538</x:v>
       </x:c>
       <x:c r="B267">
-        <x:v>2137.31005859375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C267" t="s">
         <x:v>7</x:v>
@@ -6551,7 +6551,7 @@
         <x:v>540</x:v>
       </x:c>
       <x:c r="B268">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C268" t="s">
         <x:v>7</x:v>
@@ -6565,7 +6565,7 @@
         <x:v>542</x:v>
       </x:c>
       <x:c r="B269">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C269" t="s">
         <x:v>7</x:v>
@@ -6579,7 +6579,7 @@
         <x:v>544</x:v>
       </x:c>
       <x:c r="B270">
-        <x:v>2946.169921875</x:v>
+        <x:v>2216.79</x:v>
       </x:c>
       <x:c r="C270" t="s">
         <x:v>7</x:v>
@@ -6593,7 +6593,7 @@
         <x:v>546</x:v>
       </x:c>
       <x:c r="B271">
-        <x:v>4528.169921875</x:v>
+        <x:v>7004.43</x:v>
       </x:c>
       <x:c r="C271" t="s">
         <x:v>7</x:v>
@@ -6607,7 +6607,7 @@
         <x:v>548</x:v>
       </x:c>
       <x:c r="B272">
-        <x:v>2946.169921875</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C272" t="s">
         <x:v>7</x:v>
@@ -6621,7 +6621,7 @@
         <x:v>550</x:v>
       </x:c>
       <x:c r="B273">
-        <x:v>5896.68994140625</x:v>
+        <x:v>1343.27</x:v>
       </x:c>
       <x:c r="C273" t="s">
         <x:v>7</x:v>
@@ -6635,7 +6635,7 @@
         <x:v>552</x:v>
       </x:c>
       <x:c r="B274">
-        <x:v>2946.169921875</x:v>
+        <x:v>892.81</x:v>
       </x:c>
       <x:c r="C274" t="s">
         <x:v>7</x:v>
@@ -6649,7 +6649,7 @@
         <x:v>554</x:v>
       </x:c>
       <x:c r="B275">
-        <x:v>5752.91015625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C275" t="s">
         <x:v>7</x:v>
@@ -6663,7 +6663,7 @@
         <x:v>556</x:v>
       </x:c>
       <x:c r="B276">
-        <x:v>2946.169921875</x:v>
+        <x:v>1752.54</x:v>
       </x:c>
       <x:c r="C276" t="s">
         <x:v>7</x:v>
@@ -6677,7 +6677,7 @@
         <x:v>558</x:v>
       </x:c>
       <x:c r="B277">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C277" t="s">
         <x:v>7</x:v>
@@ -6691,7 +6691,7 @@
         <x:v>560</x:v>
       </x:c>
       <x:c r="B278">
-        <x:v>5263.52001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C278" t="s">
         <x:v>7</x:v>
@@ -6705,7 +6705,7 @@
         <x:v>562</x:v>
       </x:c>
       <x:c r="B279">
-        <x:v>2520.35009765625</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C279" t="s">
         <x:v>7</x:v>
@@ -6719,7 +6719,7 @@
         <x:v>564</x:v>
       </x:c>
       <x:c r="B280">
-        <x:v>173.759994506836</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C280" t="s">
         <x:v>7</x:v>
@@ -6733,7 +6733,7 @@
         <x:v>566</x:v>
       </x:c>
       <x:c r="B281">
-        <x:v>3807.6298828125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C281" t="s">
         <x:v>7</x:v>
@@ -6747,7 +6747,7 @@
         <x:v>568</x:v>
       </x:c>
       <x:c r="B282">
-        <x:v>6498.72998046875</x:v>
+        <x:v>1541.69</x:v>
       </x:c>
       <x:c r="C282" t="s">
         <x:v>7</x:v>
@@ -6761,7 +6761,7 @@
         <x:v>570</x:v>
       </x:c>
       <x:c r="B283">
-        <x:v>2946.169921875</x:v>
+        <x:v>900.76</x:v>
       </x:c>
       <x:c r="C283" t="s">
         <x:v>7</x:v>
@@ -6775,7 +6775,7 @@
         <x:v>572</x:v>
       </x:c>
       <x:c r="B284">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C284" t="s">
         <x:v>7</x:v>
@@ -6789,7 +6789,7 @@
         <x:v>574</x:v>
       </x:c>
       <x:c r="B285">
-        <x:v>5185.10986328125</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C285" t="s">
         <x:v>7</x:v>
@@ -6803,7 +6803,7 @@
         <x:v>576</x:v>
       </x:c>
       <x:c r="B286">
-        <x:v>2258.77001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C286" t="s">
         <x:v>7</x:v>
@@ -6817,7 +6817,7 @@
         <x:v>578</x:v>
       </x:c>
       <x:c r="B287">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C287" t="s">
         <x:v>7</x:v>
@@ -6831,7 +6831,7 @@
         <x:v>580</x:v>
       </x:c>
       <x:c r="B288">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C288" t="s">
         <x:v>7</x:v>
@@ -6845,7 +6845,7 @@
         <x:v>582</x:v>
       </x:c>
       <x:c r="B289">
-        <x:v>2946.169921875</x:v>
+        <x:v>3246.17</x:v>
       </x:c>
       <x:c r="C289" t="s">
         <x:v>7</x:v>
@@ -6859,7 +6859,7 @@
         <x:v>584</x:v>
       </x:c>
       <x:c r="B290">
-        <x:v>4638.240234375</x:v>
+        <x:v>6468.79</x:v>
       </x:c>
       <x:c r="C290" t="s">
         <x:v>7</x:v>
@@ -6873,7 +6873,7 @@
         <x:v>586</x:v>
       </x:c>
       <x:c r="B291">
-        <x:v>2479.5</x:v>
+        <x:v>2111.32</x:v>
       </x:c>
       <x:c r="C291" t="s">
         <x:v>7</x:v>
@@ -6887,7 +6887,7 @@
         <x:v>588</x:v>
       </x:c>
       <x:c r="B292">
-        <x:v>2853.68994140625</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C292" t="s">
         <x:v>7</x:v>
@@ -6901,7 +6901,7 @@
         <x:v>590</x:v>
       </x:c>
       <x:c r="B293">
-        <x:v>2456.89990234375</x:v>
+        <x:v>2900.94</x:v>
       </x:c>
       <x:c r="C293" t="s">
         <x:v>7</x:v>
@@ -6915,7 +6915,7 @@
         <x:v>592</x:v>
       </x:c>
       <x:c r="B294">
-        <x:v>6498.72998046875</x:v>
+        <x:v>804.31</x:v>
       </x:c>
       <x:c r="C294" t="s">
         <x:v>7</x:v>
@@ -6929,7 +6929,7 @@
         <x:v>594</x:v>
       </x:c>
       <x:c r="B295">
-        <x:v>2946.169921875</x:v>
+        <x:v>1438.21</x:v>
       </x:c>
       <x:c r="C295" t="s">
         <x:v>7</x:v>
@@ -6943,7 +6943,7 @@
         <x:v>596</x:v>
       </x:c>
       <x:c r="B296">
-        <x:v>2946.169921875</x:v>
+        <x:v>441.81</x:v>
       </x:c>
       <x:c r="C296" t="s">
         <x:v>7</x:v>
@@ -6957,7 +6957,7 @@
         <x:v>598</x:v>
       </x:c>
       <x:c r="B297">
-        <x:v>1337.44995117188</x:v>
+        <x:v>2336.89</x:v>
       </x:c>
       <x:c r="C297" t="s">
         <x:v>7</x:v>
@@ -6971,7 +6971,7 @@
         <x:v>600</x:v>
       </x:c>
       <x:c r="B298">
-        <x:v>6967.490234375</x:v>
+        <x:v>2684.11</x:v>
       </x:c>
       <x:c r="C298" t="s">
         <x:v>7</x:v>
@@ -6985,7 +6985,7 @@
         <x:v>602</x:v>
       </x:c>
       <x:c r="B299">
-        <x:v>2946.169921875</x:v>
+        <x:v>4060.78</x:v>
       </x:c>
       <x:c r="C299" t="s">
         <x:v>7</x:v>
@@ -6999,7 +6999,7 @@
         <x:v>604</x:v>
       </x:c>
       <x:c r="B300">
-        <x:v>2946.169921875</x:v>
+        <x:v>3453.71</x:v>
       </x:c>
       <x:c r="C300" t="s">
         <x:v>7</x:v>
@@ -7013,7 +7013,7 @@
         <x:v>606</x:v>
       </x:c>
       <x:c r="B301">
-        <x:v>2946.169921875</x:v>
+        <x:v>2740.81</x:v>
       </x:c>
       <x:c r="C301" t="s">
         <x:v>7</x:v>
@@ -7027,7 +7027,7 @@
         <x:v>608</x:v>
       </x:c>
       <x:c r="B302">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C302" t="s">
         <x:v>7</x:v>
@@ -7041,7 +7041,7 @@
         <x:v>610</x:v>
       </x:c>
       <x:c r="B303">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C303" t="s">
         <x:v>7</x:v>
@@ -7055,7 +7055,7 @@
         <x:v>612</x:v>
       </x:c>
       <x:c r="B304">
-        <x:v>2946.169921875</x:v>
+        <x:v>1738.79</x:v>
       </x:c>
       <x:c r="C304" t="s">
         <x:v>7</x:v>
@@ -7069,7 +7069,7 @@
         <x:v>614</x:v>
       </x:c>
       <x:c r="B305">
-        <x:v>5131.740234375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C305" t="s">
         <x:v>7</x:v>
@@ -7083,7 +7083,7 @@
         <x:v>616</x:v>
       </x:c>
       <x:c r="B306">
-        <x:v>2946.169921875</x:v>
+        <x:v>2427.6</x:v>
       </x:c>
       <x:c r="C306" t="s">
         <x:v>7</x:v>
@@ -7097,7 +7097,7 @@
         <x:v>618</x:v>
       </x:c>
       <x:c r="B307">
-        <x:v>2911.51000976563</x:v>
+        <x:v>5540.61</x:v>
       </x:c>
       <x:c r="C307" t="s">
         <x:v>7</x:v>
@@ -7111,7 +7111,7 @@
         <x:v>620</x:v>
       </x:c>
       <x:c r="B308">
-        <x:v>2946.169921875</x:v>
+        <x:v>2384.1</x:v>
       </x:c>
       <x:c r="C308" t="s">
         <x:v>7</x:v>
@@ -7125,7 +7125,7 @@
         <x:v>622</x:v>
       </x:c>
       <x:c r="B309">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C309" t="s">
         <x:v>7</x:v>
@@ -7139,7 +7139,7 @@
         <x:v>624</x:v>
       </x:c>
       <x:c r="B310">
-        <x:v>3671.27001953125</x:v>
+        <x:v>4948.03</x:v>
       </x:c>
       <x:c r="C310" t="s">
         <x:v>7</x:v>
@@ -7153,7 +7153,7 @@
         <x:v>626</x:v>
       </x:c>
       <x:c r="B311">
-        <x:v>2946.169921875</x:v>
+        <x:v>525.14</x:v>
       </x:c>
       <x:c r="C311" t="s">
         <x:v>7</x:v>
@@ -7167,7 +7167,7 @@
         <x:v>628</x:v>
       </x:c>
       <x:c r="B312">
-        <x:v>3671.27001953125</x:v>
+        <x:v>852.5</x:v>
       </x:c>
       <x:c r="C312" t="s">
         <x:v>7</x:v>
@@ -7181,7 +7181,7 @@
         <x:v>630</x:v>
       </x:c>
       <x:c r="B313">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C313" t="s">
         <x:v>7</x:v>
@@ -7195,7 +7195,7 @@
         <x:v>632</x:v>
       </x:c>
       <x:c r="B314">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C314" t="s">
         <x:v>7</x:v>
@@ -7209,7 +7209,7 @@
         <x:v>634</x:v>
       </x:c>
       <x:c r="B315">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C315" t="s">
         <x:v>7</x:v>
@@ -7223,7 +7223,7 @@
         <x:v>636</x:v>
       </x:c>
       <x:c r="B316">
-        <x:v>2946.169921875</x:v>
+        <x:v>954.47</x:v>
       </x:c>
       <x:c r="C316" t="s">
         <x:v>7</x:v>
@@ -7237,7 +7237,7 @@
         <x:v>638</x:v>
       </x:c>
       <x:c r="B317">
-        <x:v>2946.169921875</x:v>
+        <x:v>3793.47</x:v>
       </x:c>
       <x:c r="C317" t="s">
         <x:v>7</x:v>
@@ -7251,7 +7251,7 @@
         <x:v>640</x:v>
       </x:c>
       <x:c r="B318">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2200.38</x:v>
       </x:c>
       <x:c r="C318" t="s">
         <x:v>7</x:v>
@@ -7265,7 +7265,7 @@
         <x:v>642</x:v>
       </x:c>
       <x:c r="B319">
-        <x:v>954.469970703125</x:v>
+        <x:v>2040.53</x:v>
       </x:c>
       <x:c r="C319" t="s">
         <x:v>7</x:v>
@@ -7279,7 +7279,7 @@
         <x:v>644</x:v>
       </x:c>
       <x:c r="B320">
-        <x:v>3793.46997070313</x:v>
+        <x:v>3541.33</x:v>
       </x:c>
       <x:c r="C320" t="s">
         <x:v>7</x:v>
@@ -7293,7 +7293,7 @@
         <x:v>646</x:v>
       </x:c>
       <x:c r="B321">
-        <x:v>2200.3798828125</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C321" t="s">
         <x:v>7</x:v>
@@ -7307,7 +7307,7 @@
         <x:v>648</x:v>
       </x:c>
       <x:c r="B322">
-        <x:v>2040.53002929688</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C322" t="s">
         <x:v>7</x:v>
@@ -7321,7 +7321,7 @@
         <x:v>650</x:v>
       </x:c>
       <x:c r="B323">
-        <x:v>3541.330078125</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C323" t="s">
         <x:v>7</x:v>
@@ -7335,7 +7335,7 @@
         <x:v>652</x:v>
       </x:c>
       <x:c r="B324">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C324" t="s">
         <x:v>7</x:v>
@@ -7349,7 +7349,7 @@
         <x:v>654</x:v>
       </x:c>
       <x:c r="B325">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C325" t="s">
         <x:v>7</x:v>
@@ -7363,7 +7363,7 @@
         <x:v>656</x:v>
       </x:c>
       <x:c r="B326">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C326" t="s">
         <x:v>7</x:v>
@@ -7377,7 +7377,7 @@
         <x:v>658</x:v>
       </x:c>
       <x:c r="B327">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C327" t="s">
         <x:v>7</x:v>
@@ -7391,7 +7391,7 @@
         <x:v>660</x:v>
       </x:c>
       <x:c r="B328">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2308.8</x:v>
       </x:c>
       <x:c r="C328" t="s">
         <x:v>7</x:v>
@@ -7405,7 +7405,7 @@
         <x:v>662</x:v>
       </x:c>
       <x:c r="B329">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C329" t="s">
         <x:v>7</x:v>
@@ -7419,7 +7419,7 @@
         <x:v>664</x:v>
       </x:c>
       <x:c r="B330">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C330" t="s">
         <x:v>7</x:v>
@@ -7433,7 +7433,7 @@
         <x:v>666</x:v>
       </x:c>
       <x:c r="B331">
-        <x:v>2308.80004882813</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C331" t="s">
         <x:v>7</x:v>
@@ -7447,7 +7447,7 @@
         <x:v>668</x:v>
       </x:c>
       <x:c r="B332">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C332" t="s">
         <x:v>7</x:v>
@@ -7461,7 +7461,7 @@
         <x:v>670</x:v>
       </x:c>
       <x:c r="B333">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3671.28</x:v>
       </x:c>
       <x:c r="C333" t="s">
         <x:v>7</x:v>
@@ -7475,7 +7475,7 @@
         <x:v>672</x:v>
       </x:c>
       <x:c r="B334">
-        <x:v>2946.169921875</x:v>
+        <x:v>2592.51</x:v>
       </x:c>
       <x:c r="C334" t="s">
         <x:v>7</x:v>
@@ -7489,7 +7489,7 @@
         <x:v>674</x:v>
       </x:c>
       <x:c r="B335">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C335" t="s">
         <x:v>7</x:v>
@@ -7503,7 +7503,7 @@
         <x:v>676</x:v>
       </x:c>
       <x:c r="B336">
-        <x:v>2946.169921875</x:v>
+        <x:v>2597.46</x:v>
       </x:c>
       <x:c r="C336" t="s">
         <x:v>7</x:v>
@@ -7517,7 +7517,7 @@
         <x:v>678</x:v>
       </x:c>
       <x:c r="B337">
-        <x:v>2946.169921875</x:v>
+        <x:v>2145.2</x:v>
       </x:c>
       <x:c r="C337" t="s">
         <x:v>7</x:v>
@@ -7531,7 +7531,7 @@
         <x:v>680</x:v>
       </x:c>
       <x:c r="B338">
-        <x:v>2946.169921875</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C338" t="s">
         <x:v>7</x:v>
@@ -7545,7 +7545,7 @@
         <x:v>682</x:v>
       </x:c>
       <x:c r="B339">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C339" t="s">
         <x:v>7</x:v>
@@ -7559,7 +7559,7 @@
         <x:v>684</x:v>
       </x:c>
       <x:c r="B340">
-        <x:v>1799.2900390625</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C340" t="s">
         <x:v>7</x:v>
@@ -7573,7 +7573,7 @@
         <x:v>686</x:v>
       </x:c>
       <x:c r="B341">
-        <x:v>3944.84008789063</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C341" t="s">
         <x:v>7</x:v>
@@ -7587,7 +7587,7 @@
         <x:v>688</x:v>
       </x:c>
       <x:c r="B342">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.34</x:v>
       </x:c>
       <x:c r="C342" t="s">
         <x:v>7</x:v>
@@ -7601,7 +7601,7 @@
         <x:v>690</x:v>
       </x:c>
       <x:c r="B343">
-        <x:v>2946.169921875</x:v>
+        <x:v>3453.71</x:v>
       </x:c>
       <x:c r="C343" t="s">
         <x:v>7</x:v>
@@ -7615,7 +7615,7 @@
         <x:v>692</x:v>
       </x:c>
       <x:c r="B344">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C344" t="s">
         <x:v>7</x:v>
@@ -7629,7 +7629,7 @@
         <x:v>694</x:v>
       </x:c>
       <x:c r="B345">
-        <x:v>1095.35998535156</x:v>
+        <x:v>2523.64</x:v>
       </x:c>
       <x:c r="C345" t="s">
         <x:v>7</x:v>
@@ -7643,7 +7643,7 @@
         <x:v>696</x:v>
       </x:c>
       <x:c r="B346">
-        <x:v>2946.169921875</x:v>
+        <x:v>1753.46</x:v>
       </x:c>
       <x:c r="C346" t="s">
         <x:v>7</x:v>
@@ -7657,7 +7657,7 @@
         <x:v>698</x:v>
       </x:c>
       <x:c r="B347">
-        <x:v>4735.02001953125</x:v>
+        <x:v>2527.46</x:v>
       </x:c>
       <x:c r="C347" t="s">
         <x:v>7</x:v>
@@ -7671,7 +7671,7 @@
         <x:v>700</x:v>
       </x:c>
       <x:c r="B348">
-        <x:v>1703.81005859375</x:v>
+        <x:v>3577.43</x:v>
       </x:c>
       <x:c r="C348" t="s">
         <x:v>7</x:v>
@@ -7685,7 +7685,7 @@
         <x:v>702</x:v>
       </x:c>
       <x:c r="B349">
-        <x:v>2460.75</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C349" t="s">
         <x:v>7</x:v>
@@ -7699,7 +7699,7 @@
         <x:v>704</x:v>
       </x:c>
       <x:c r="B350">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C350" t="s">
         <x:v>7</x:v>
@@ -7713,7 +7713,7 @@
         <x:v>706</x:v>
       </x:c>
       <x:c r="B351">
-        <x:v>2198.15991210938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C351" t="s">
         <x:v>7</x:v>
@@ -7727,7 +7727,7 @@
         <x:v>708</x:v>
       </x:c>
       <x:c r="B352">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C352" t="s">
         <x:v>7</x:v>
@@ -7741,7 +7741,7 @@
         <x:v>710</x:v>
       </x:c>
       <x:c r="B353">
-        <x:v>5051.39990234375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C353" t="s">
         <x:v>7</x:v>
@@ -7755,7 +7755,7 @@
         <x:v>712</x:v>
       </x:c>
       <x:c r="B354">
-        <x:v>6498.72998046875</x:v>
+        <x:v>1799.29</x:v>
       </x:c>
       <x:c r="C354" t="s">
         <x:v>7</x:v>
@@ -7769,7 +7769,7 @@
         <x:v>714</x:v>
       </x:c>
       <x:c r="B355">
-        <x:v>3671.34008789063</x:v>
+        <x:v>3944.84</x:v>
       </x:c>
       <x:c r="C355" t="s">
         <x:v>7</x:v>
@@ -7783,7 +7783,7 @@
         <x:v>716</x:v>
       </x:c>
       <x:c r="B356">
-        <x:v>3453.7099609375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C356" t="s">
         <x:v>7</x:v>
@@ -7797,7 +7797,7 @@
         <x:v>718</x:v>
       </x:c>
       <x:c r="B357">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C357" t="s">
         <x:v>7</x:v>
@@ -7811,7 +7811,7 @@
         <x:v>720</x:v>
       </x:c>
       <x:c r="B358">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C358" t="s">
         <x:v>7</x:v>
@@ -7825,7 +7825,7 @@
         <x:v>722</x:v>
       </x:c>
       <x:c r="B359">
-        <x:v>3671.28002929688</x:v>
+        <x:v>1095.36</x:v>
       </x:c>
       <x:c r="C359" t="s">
         <x:v>7</x:v>
@@ -7839,7 +7839,7 @@
         <x:v>724</x:v>
       </x:c>
       <x:c r="B360">
-        <x:v>2592.51000976563</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C360" t="s">
         <x:v>7</x:v>
@@ -7853,7 +7853,7 @@
         <x:v>726</x:v>
       </x:c>
       <x:c r="B361">
-        <x:v>2946.169921875</x:v>
+        <x:v>4735.02</x:v>
       </x:c>
       <x:c r="C361" t="s">
         <x:v>7</x:v>
@@ -7867,7 +7867,7 @@
         <x:v>728</x:v>
       </x:c>
       <x:c r="B362">
-        <x:v>2597.4599609375</x:v>
+        <x:v>1703.81</x:v>
       </x:c>
       <x:c r="C362" t="s">
         <x:v>7</x:v>
@@ -7881,7 +7881,7 @@
         <x:v>730</x:v>
       </x:c>
       <x:c r="B363">
-        <x:v>2145.19995117188</x:v>
+        <x:v>2460.75</x:v>
       </x:c>
       <x:c r="C363" t="s">
         <x:v>7</x:v>
@@ -7895,7 +7895,7 @@
         <x:v>732</x:v>
       </x:c>
       <x:c r="B364">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C364" t="s">
         <x:v>7</x:v>
@@ -7909,7 +7909,7 @@
         <x:v>734</x:v>
       </x:c>
       <x:c r="B365">
-        <x:v>2946.169921875</x:v>
+        <x:v>2198.16</x:v>
       </x:c>
       <x:c r="C365" t="s">
         <x:v>7</x:v>
@@ -7923,7 +7923,7 @@
         <x:v>736</x:v>
       </x:c>
       <x:c r="B366">
-        <x:v>4528.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C366" t="s">
         <x:v>7</x:v>
@@ -7937,7 +7937,7 @@
         <x:v>738</x:v>
       </x:c>
       <x:c r="B367">
-        <x:v>2946.169921875</x:v>
+        <x:v>5051.4</x:v>
       </x:c>
       <x:c r="C367" t="s">
         <x:v>7</x:v>
@@ -7951,7 +7951,7 @@
         <x:v>740</x:v>
       </x:c>
       <x:c r="B368">
-        <x:v>3688.44995117188</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C368" t="s">
         <x:v>7</x:v>
@@ -7965,7 +7965,7 @@
         <x:v>742</x:v>
       </x:c>
       <x:c r="B369">
-        <x:v>3671.34008789063</x:v>
+        <x:v>3688.45</x:v>
       </x:c>
       <x:c r="C369" t="s">
         <x:v>7</x:v>
@@ -7979,7 +7979,7 @@
         <x:v>744</x:v>
       </x:c>
       <x:c r="B370">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.34</x:v>
       </x:c>
       <x:c r="C370" t="s">
         <x:v>7</x:v>
@@ -7993,7 +7993,7 @@
         <x:v>746</x:v>
       </x:c>
       <x:c r="B371">
-        <x:v>6498.72998046875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C371" t="s">
         <x:v>7</x:v>
@@ -8007,7 +8007,7 @@
         <x:v>748</x:v>
       </x:c>
       <x:c r="B372">
-        <x:v>4528.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C372" t="s">
         <x:v>7</x:v>
@@ -8021,7 +8021,7 @@
         <x:v>750</x:v>
       </x:c>
       <x:c r="B373">
-        <x:v>2882.42993164063</x:v>
+        <x:v>4528.17</x:v>
       </x:c>
       <x:c r="C373" t="s">
         <x:v>7</x:v>
@@ -8035,7 +8035,7 @@
         <x:v>752</x:v>
       </x:c>
       <x:c r="B374">
-        <x:v>3671.27001953125</x:v>
+        <x:v>2882.43</x:v>
       </x:c>
       <x:c r="C374" t="s">
         <x:v>7</x:v>
@@ -8049,7 +8049,7 @@
         <x:v>754</x:v>
       </x:c>
       <x:c r="B375">
-        <x:v>2559.05004882813</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C375" t="s">
         <x:v>7</x:v>
@@ -8063,7 +8063,7 @@
         <x:v>756</x:v>
       </x:c>
       <x:c r="B376">
-        <x:v>4317.47998046875</x:v>
+        <x:v>2559.05</x:v>
       </x:c>
       <x:c r="C376" t="s">
         <x:v>7</x:v>
@@ -8077,7 +8077,7 @@
         <x:v>758</x:v>
       </x:c>
       <x:c r="B377">
-        <x:v>5641.16015625</x:v>
+        <x:v>4317.48</x:v>
       </x:c>
       <x:c r="C377" t="s">
         <x:v>7</x:v>
@@ -8091,7 +8091,7 @@
         <x:v>760</x:v>
       </x:c>
       <x:c r="B378">
-        <x:v>1752.5400390625</x:v>
+        <x:v>5641.16</x:v>
       </x:c>
       <x:c r="C378" t="s">
         <x:v>7</x:v>
@@ -8105,7 +8105,7 @@
         <x:v>762</x:v>
       </x:c>
       <x:c r="B379">
-        <x:v>2946.169921875</x:v>
+        <x:v>3020.38</x:v>
       </x:c>
       <x:c r="C379" t="s">
         <x:v>7</x:v>
@@ -8119,7 +8119,7 @@
         <x:v>764</x:v>
       </x:c>
       <x:c r="B380">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C380" t="s">
         <x:v>7</x:v>
@@ -8133,7 +8133,7 @@
         <x:v>766</x:v>
       </x:c>
       <x:c r="B381">
-        <x:v>6498.72998046875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C381" t="s">
         <x:v>7</x:v>
@@ -8147,7 +8147,7 @@
         <x:v>768</x:v>
       </x:c>
       <x:c r="B382">
-        <x:v>3671.27001953125</x:v>
+        <x:v>4039.96</x:v>
       </x:c>
       <x:c r="C382" t="s">
         <x:v>7</x:v>
@@ -8161,7 +8161,7 @@
         <x:v>770</x:v>
       </x:c>
       <x:c r="B383">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C383" t="s">
         <x:v>7</x:v>
@@ -8175,7 +8175,7 @@
         <x:v>772</x:v>
       </x:c>
       <x:c r="B384">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3346.17</x:v>
       </x:c>
       <x:c r="C384" t="s">
         <x:v>7</x:v>
@@ -8189,7 +8189,7 @@
         <x:v>774</x:v>
       </x:c>
       <x:c r="B385">
-        <x:v>2523.63989257813</x:v>
+        <x:v>5703.01</x:v>
       </x:c>
       <x:c r="C385" t="s">
         <x:v>7</x:v>
@@ -8203,7 +8203,7 @@
         <x:v>776</x:v>
       </x:c>
       <x:c r="B386">
-        <x:v>1753.4599609375</x:v>
+        <x:v>2882.49</x:v>
       </x:c>
       <x:c r="C386" t="s">
         <x:v>7</x:v>
@@ -8217,7 +8217,7 @@
         <x:v>778</x:v>
       </x:c>
       <x:c r="B387">
-        <x:v>2527.4599609375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C387" t="s">
         <x:v>7</x:v>
@@ -8231,7 +8231,7 @@
         <x:v>780</x:v>
       </x:c>
       <x:c r="B388">
-        <x:v>3577.42993164063</x:v>
+        <x:v>6661.78</x:v>
       </x:c>
       <x:c r="C388" t="s">
         <x:v>7</x:v>
@@ -8245,7 +8245,7 @@
         <x:v>782</x:v>
       </x:c>
       <x:c r="B389">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C389" t="s">
         <x:v>7</x:v>
@@ -8259,7 +8259,7 @@
         <x:v>784</x:v>
       </x:c>
       <x:c r="B390">
-        <x:v>3020.3798828125</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C390" t="s">
         <x:v>7</x:v>
@@ -8273,7 +8273,7 @@
         <x:v>786</x:v>
       </x:c>
       <x:c r="B391">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C391" t="s">
         <x:v>7</x:v>
@@ -8287,7 +8287,7 @@
         <x:v>788</x:v>
       </x:c>
       <x:c r="B392">
-        <x:v>6498.72998046875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C392" t="s">
         <x:v>7</x:v>
@@ -8301,7 +8301,7 @@
         <x:v>790</x:v>
       </x:c>
       <x:c r="B393">
-        <x:v>4039.9599609375</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C393" t="s">
         <x:v>7</x:v>
@@ -8315,7 +8315,7 @@
         <x:v>792</x:v>
       </x:c>
       <x:c r="B394">
-        <x:v>2946.169921875</x:v>
+        <x:v>3671.27</x:v>
       </x:c>
       <x:c r="C394" t="s">
         <x:v>7</x:v>
@@ -8329,7 +8329,7 @@
         <x:v>794</x:v>
       </x:c>
       <x:c r="B395">
-        <x:v>3346.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C395" t="s">
         <x:v>7</x:v>
@@ -8343,7 +8343,7 @@
         <x:v>796</x:v>
       </x:c>
       <x:c r="B396">
-        <x:v>5703.009765625</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C396" t="s">
         <x:v>7</x:v>
@@ -8357,7 +8357,7 @@
         <x:v>798</x:v>
       </x:c>
       <x:c r="B397">
-        <x:v>2882.48999023438</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C397" t="s">
         <x:v>7</x:v>
@@ -8371,7 +8371,7 @@
         <x:v>800</x:v>
       </x:c>
       <x:c r="B398">
-        <x:v>2946.169921875</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C398" t="s">
         <x:v>7</x:v>
@@ -8385,7 +8385,7 @@
         <x:v>802</x:v>
       </x:c>
       <x:c r="B399">
-        <x:v>6661.77978515625</x:v>
+        <x:v>2946.17</x:v>
       </x:c>
       <x:c r="C399" t="s">
         <x:v>7</x:v>
@@ -8399,7 +8399,7 @@
         <x:v>804</x:v>
       </x:c>
       <x:c r="B400">
-        <x:v>2946.169921875</x:v>
+        <x:v>6498.73</x:v>
       </x:c>
       <x:c r="C400" t="s">
         <x:v>7</x:v>
@@ -8413,7 +8413,7 @@
         <x:v>806</x:v>
       </x:c>
       <x:c r="B401">
-        <x:v>3446.169921875</x:v>
+        <x:v>10549.21</x:v>
       </x:c>
       <x:c r="C401" t="s">
         <x:v>7</x:v>
@@ -8427,7 +8427,7 @@
         <x:v>808</x:v>
       </x:c>
       <x:c r="B402">
-        <x:v>2729.07006835938</x:v>
+        <x:v>2679.07</x:v>
       </x:c>
       <x:c r="C402" t="s">
         <x:v>7</x:v>
@@ -8441,7 +8441,7 @@
         <x:v>810</x:v>
       </x:c>
       <x:c r="B403">
-        <x:v>10549.2099609375</x:v>
+        <x:v>3446.17</x:v>
       </x:c>
       <x:c r="C403" t="s">
         <x:v>7</x:v>
@@ -8455,7 +8455,7 @@
         <x:v>812</x:v>
       </x:c>
       <x:c r="B404">
-        <x:v>2679.07006835938</x:v>
+        <x:v>2729.07</x:v>
       </x:c>
       <x:c r="C404" t="s">
         <x:v>7</x:v>
@@ -8469,7 +8469,7 @@
         <x:v>814</x:v>
       </x:c>
       <x:c r="B405">
-        <x:v>2946.23999023438</x:v>
+        <x:v>2946.24</x:v>
       </x:c>
       <x:c r="C405" t="s">
         <x:v>7</x:v>
